--- a/teaching/traditional_assets/database/data/argentina/argentina_retail_grocery_and_food.xlsx
+++ b/teaching/traditional_assets/database/data/argentina/argentina_retail_grocery_and_food.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="base_pata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.339</v>
+        <v>0.354</v>
+      </c>
+      <c r="E2">
+        <v>0.174</v>
       </c>
       <c r="G2">
-        <v>-0.003477863989046098</v>
+        <v>0.02701806729653572</v>
       </c>
       <c r="H2">
-        <v>-0.003477863989046098</v>
+        <v>0.02701806729653572</v>
       </c>
       <c r="I2">
-        <v>-0.01178666567595239</v>
+        <v>0.009448035803083045</v>
       </c>
       <c r="J2">
-        <v>-0.01178666567595239</v>
+        <v>0.005835036926533696</v>
       </c>
       <c r="K2">
-        <v>-7.23</v>
+        <v>13.3</v>
       </c>
       <c r="L2">
-        <v>-0.006599726152441808</v>
+        <v>0.01102270843693022</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +632,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.56</v>
+        <v>9.5</v>
       </c>
       <c r="V2">
-        <v>0.0170416467209191</v>
+        <v>0.04205400619743249</v>
       </c>
       <c r="W2">
-        <v>-0.1268421052631579</v>
+        <v>0.06758130081300813</v>
       </c>
       <c r="X2">
-        <v>0.1110251038633185</v>
+        <v>0.105837089849049</v>
       </c>
       <c r="Y2">
-        <v>-0.2378672091264764</v>
+        <v>-0.03825578903604089</v>
       </c>
       <c r="Z2">
-        <v>6.331547893543392</v>
+        <v>4.381740930384573</v>
       </c>
       <c r="AA2">
-        <v>-0.07462783823247657</v>
+        <v>0.0255676201312981</v>
       </c>
       <c r="AB2">
-        <v>0.1002891598005542</v>
+        <v>0.1021698957696123</v>
       </c>
       <c r="AC2">
-        <v>-0.1749169980330308</v>
+        <v>-0.0766022756383142</v>
       </c>
       <c r="AD2">
-        <v>83.5</v>
+        <v>83.8</v>
       </c>
       <c r="AE2">
-        <v>11.31146124002923</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>94.81146124002923</v>
+        <v>83.8</v>
       </c>
       <c r="AG2">
-        <v>91.25146124002923</v>
+        <v>74.3</v>
       </c>
       <c r="AH2">
-        <v>0.3121761057449783</v>
+        <v>0.2705844365515014</v>
       </c>
       <c r="AI2">
-        <v>0.325017950398649</v>
+        <v>0.2777593636062314</v>
       </c>
       <c r="AJ2">
-        <v>0.3040180476318122</v>
+        <v>0.2475016655562958</v>
       </c>
       <c r="AK2">
-        <v>0.3166788078996312</v>
+        <v>0.2542778918548939</v>
       </c>
       <c r="AL2">
-        <v>0.846</v>
+        <v>0.623</v>
       </c>
       <c r="AM2">
-        <v>-1.054</v>
+        <v>-4.436999999999999</v>
       </c>
       <c r="AN2">
-        <v>20.83853256800599</v>
+        <v>3.080882352941177</v>
       </c>
       <c r="AO2">
-        <v>-17.49408983451537</v>
+        <v>18.29855537720706</v>
       </c>
       <c r="AP2">
-        <v>22.77301253806569</v>
+        <v>2.731617647058823</v>
       </c>
       <c r="AQ2">
-        <v>14.04174573055029</v>
+        <v>-2.569303583502367</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +724,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.339</v>
+        <v>0.354</v>
+      </c>
+      <c r="E3">
+        <v>0.174</v>
       </c>
       <c r="G3">
-        <v>-0.003477863989046098</v>
+        <v>0.02701806729653572</v>
       </c>
       <c r="H3">
-        <v>-0.003477863989046098</v>
+        <v>0.02701806729653572</v>
       </c>
       <c r="I3">
-        <v>-0.01178666567595239</v>
+        <v>0.009448035803083045</v>
       </c>
       <c r="J3">
-        <v>-0.01178666567595239</v>
+        <v>0.005835036926533696</v>
       </c>
       <c r="K3">
-        <v>-7.23</v>
+        <v>13.3</v>
       </c>
       <c r="L3">
-        <v>-0.006599726152441808</v>
+        <v>0.01102270843693022</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +754,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +763,8797 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.56</v>
+        <v>9.5</v>
       </c>
       <c r="V3">
-        <v>0.0170416467209191</v>
+        <v>0.04205400619743249</v>
       </c>
       <c r="W3">
-        <v>-0.1268421052631579</v>
+        <v>0.06758130081300813</v>
       </c>
       <c r="X3">
-        <v>0.1110251038633185</v>
+        <v>0.105837089849049</v>
       </c>
       <c r="Y3">
-        <v>-0.2378672091264764</v>
+        <v>-0.03825578903604089</v>
       </c>
       <c r="Z3">
-        <v>6.331547893543392</v>
+        <v>4.381740930384573</v>
       </c>
       <c r="AA3">
-        <v>-0.07462783823247657</v>
+        <v>0.0255676201312981</v>
       </c>
       <c r="AB3">
-        <v>0.1002891598005542</v>
+        <v>0.1021698957696123</v>
       </c>
       <c r="AC3">
-        <v>-0.1749169980330308</v>
+        <v>-0.0766022756383142</v>
       </c>
       <c r="AD3">
-        <v>83.5</v>
+        <v>83.8</v>
       </c>
       <c r="AE3">
-        <v>11.31146124002923</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>94.81146124002923</v>
+        <v>83.8</v>
       </c>
       <c r="AG3">
-        <v>91.25146124002923</v>
+        <v>74.3</v>
       </c>
       <c r="AH3">
-        <v>0.3121761057449783</v>
+        <v>0.2705844365515014</v>
       </c>
       <c r="AI3">
-        <v>0.325017950398649</v>
+        <v>0.2777593636062314</v>
       </c>
       <c r="AJ3">
-        <v>0.3040180476318122</v>
+        <v>0.2475016655562958</v>
       </c>
       <c r="AK3">
-        <v>0.3166788078996312</v>
+        <v>0.2542778918548939</v>
       </c>
       <c r="AL3">
-        <v>0.846</v>
+        <v>0.623</v>
       </c>
       <c r="AM3">
-        <v>-1.054</v>
+        <v>-4.436999999999999</v>
       </c>
       <c r="AN3">
-        <v>20.83853256800599</v>
+        <v>3.080882352941177</v>
       </c>
       <c r="AO3">
-        <v>-17.49408983451537</v>
+        <v>18.29855537720706</v>
       </c>
       <c r="AP3">
-        <v>22.77301253806569</v>
+        <v>2.731617647058823</v>
       </c>
       <c r="AQ3">
-        <v>14.04174573055029</v>
+        <v>-2.569303583502367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sociedad Anónima Importadora y Exportadora de la Patagonia (BASE:PATA)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BASE:PATA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retail (Grocery and Food)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.270584436551501</v>
+      </c>
+      <c r="F2">
+        <v>0.36</v>
+      </c>
+      <c r="G2">
+        <v>225.9</v>
+      </c>
+      <c r="H2">
+        <v>292.304211424454</v>
+      </c>
+      <c r="I2">
+        <v>300.2</v>
+      </c>
+      <c r="J2">
+        <v>394.296211424454</v>
+      </c>
+      <c r="K2">
+        <v>83.8</v>
+      </c>
+      <c r="L2">
+        <v>111.492</v>
+      </c>
+      <c r="M2">
+        <v>0.102169895769612</v>
+      </c>
+      <c r="N2">
+        <v>0.0800071026863753</v>
+      </c>
+      <c r="O2">
+        <v>0.0922842258108444</v>
+      </c>
+      <c r="P2">
+        <v>0.01582</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.105837089849049</v>
+      </c>
+      <c r="T2">
+        <v>0.116112347947461</v>
+      </c>
+      <c r="U2">
+        <v>0.590781305594071</v>
+      </c>
+      <c r="V2">
+        <v>0.653663151361208</v>
+      </c>
+      <c r="W2">
+        <v>4.524313661617533</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>225.9</v>
+      </c>
+      <c r="AB2">
+        <v>0.1634057965865632</v>
+      </c>
+      <c r="AC2">
+        <v>0.1318346083012062</v>
+      </c>
+      <c r="AD2">
+        <v>0.3</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>27.2</v>
+      </c>
+      <c r="AH2">
+        <v>15.8</v>
+      </c>
+      <c r="AI2">
+        <v>25.25</v>
+      </c>
+      <c r="AJ2">
+        <v>83.8</v>
+      </c>
+      <c r="AK2">
+        <v>83.8</v>
+      </c>
+      <c r="AL2">
+        <v>0.623</v>
+      </c>
+      <c r="AM2">
+        <v>83.8</v>
+      </c>
+      <c r="AN2">
+        <v>9.5</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.08593666220445662</v>
+      </c>
+      <c r="C2">
+        <v>373.2885824888697</v>
+      </c>
+      <c r="D2">
+        <v>363.7885824888697</v>
+      </c>
+      <c r="E2">
+        <v>-83.8</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>9.5</v>
+      </c>
+      <c r="H2">
+        <v>225.9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>27.2</v>
+      </c>
+      <c r="K2">
+        <v>15.8</v>
+      </c>
+      <c r="L2">
+        <v>11.4</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>11.4</v>
+      </c>
+      <c r="O2">
+        <v>3.42</v>
+      </c>
+      <c r="P2">
+        <v>7.98</v>
+      </c>
+      <c r="Q2">
+        <v>23.78</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.08593666220445662</v>
+      </c>
+      <c r="T2">
+        <v>0.4689959830394317</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.3</v>
+      </c>
+      <c r="W2">
+        <v>0.01134</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.08572715221784323</v>
+      </c>
+      <c r="C3">
+        <v>371.188837245008</v>
+      </c>
+      <c r="D3">
+        <v>364.785837245008</v>
+      </c>
+      <c r="E3">
+        <v>-80.703</v>
+      </c>
+      <c r="F3">
+        <v>3.097</v>
+      </c>
+      <c r="G3">
+        <v>9.5</v>
+      </c>
+      <c r="H3">
+        <v>225.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>27.2</v>
+      </c>
+      <c r="K3">
+        <v>15.8</v>
+      </c>
+      <c r="L3">
+        <v>11.4</v>
+      </c>
+      <c r="M3">
+        <v>0.0501714</v>
+      </c>
+      <c r="N3">
+        <v>11.3498286</v>
+      </c>
+      <c r="O3">
+        <v>3.40494858</v>
+      </c>
+      <c r="P3">
+        <v>7.94488002</v>
+      </c>
+      <c r="Q3">
+        <v>23.74488002</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.08647853759378105</v>
+      </c>
+      <c r="T3">
+        <v>0.4723121162528418</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.3</v>
+      </c>
+      <c r="W3">
+        <v>0.01134</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>227.2210861167917</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.08551764223122986</v>
+      </c>
+      <c r="C4">
+        <v>369.0945745856106</v>
+      </c>
+      <c r="D4">
+        <v>365.7885745856107</v>
+      </c>
+      <c r="E4">
+        <v>-77.60599999999999</v>
+      </c>
+      <c r="F4">
+        <v>6.194</v>
+      </c>
+      <c r="G4">
+        <v>9.5</v>
+      </c>
+      <c r="H4">
+        <v>225.9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>27.2</v>
+      </c>
+      <c r="K4">
+        <v>15.8</v>
+      </c>
+      <c r="L4">
+        <v>11.4</v>
+      </c>
+      <c r="M4">
+        <v>0.1003428</v>
+      </c>
+      <c r="N4">
+        <v>11.2996572</v>
+      </c>
+      <c r="O4">
+        <v>3.38989716</v>
+      </c>
+      <c r="P4">
+        <v>7.90976004</v>
+      </c>
+      <c r="Q4">
+        <v>23.70976004</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.08703147166452027</v>
+      </c>
+      <c r="T4">
+        <v>0.4756959256542807</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.3</v>
+      </c>
+      <c r="W4">
+        <v>0.01134</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>113.6105430583958</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.0853081322446165</v>
+      </c>
+      <c r="C5">
+        <v>367.0058398475185</v>
+      </c>
+      <c r="D5">
+        <v>366.7968398475185</v>
+      </c>
+      <c r="E5">
+        <v>-74.509</v>
+      </c>
+      <c r="F5">
+        <v>9.290999999999999</v>
+      </c>
+      <c r="G5">
+        <v>9.5</v>
+      </c>
+      <c r="H5">
+        <v>225.9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>27.2</v>
+      </c>
+      <c r="K5">
+        <v>15.8</v>
+      </c>
+      <c r="L5">
+        <v>11.4</v>
+      </c>
+      <c r="M5">
+        <v>0.1505142</v>
+      </c>
+      <c r="N5">
+        <v>11.2494858</v>
+      </c>
+      <c r="O5">
+        <v>3.37484574</v>
+      </c>
+      <c r="P5">
+        <v>7.874640060000001</v>
+      </c>
+      <c r="Q5">
+        <v>23.67464006</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.08759580643774897</v>
+      </c>
+      <c r="T5">
+        <v>0.4791495043217286</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.3</v>
+      </c>
+      <c r="W5">
+        <v>0.01134</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>75.74036203893057</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.08509862225800313</v>
+      </c>
+      <c r="C6">
+        <v>364.922678868823</v>
+      </c>
+      <c r="D6">
+        <v>367.810678868823</v>
+      </c>
+      <c r="E6">
+        <v>-71.41199999999999</v>
+      </c>
+      <c r="F6">
+        <v>12.388</v>
+      </c>
+      <c r="G6">
+        <v>9.5</v>
+      </c>
+      <c r="H6">
+        <v>225.9</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>27.2</v>
+      </c>
+      <c r="K6">
+        <v>15.8</v>
+      </c>
+      <c r="L6">
+        <v>11.4</v>
+      </c>
+      <c r="M6">
+        <v>0.2006856</v>
+      </c>
+      <c r="N6">
+        <v>11.1993144</v>
+      </c>
+      <c r="O6">
+        <v>3.35979432</v>
+      </c>
+      <c r="P6">
+        <v>7.83952008</v>
+      </c>
+      <c r="Q6">
+        <v>23.63952008</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.08817189818541993</v>
+      </c>
+      <c r="T6">
+        <v>0.4826750325447484</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.3</v>
+      </c>
+      <c r="W6">
+        <v>0.01134</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>56.80527152919792</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.08488911227138975</v>
+      </c>
+      <c r="C7">
+        <v>362.8451379958121</v>
+      </c>
+      <c r="D7">
+        <v>368.8301379958121</v>
+      </c>
+      <c r="E7">
+        <v>-68.315</v>
+      </c>
+      <c r="F7">
+        <v>15.485</v>
+      </c>
+      <c r="G7">
+        <v>9.5</v>
+      </c>
+      <c r="H7">
+        <v>225.9</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>27.2</v>
+      </c>
+      <c r="K7">
+        <v>15.8</v>
+      </c>
+      <c r="L7">
+        <v>11.4</v>
+      </c>
+      <c r="M7">
+        <v>0.250857</v>
+      </c>
+      <c r="N7">
+        <v>11.149143</v>
+      </c>
+      <c r="O7">
+        <v>3.3447429</v>
+      </c>
+      <c r="P7">
+        <v>7.804400100000001</v>
+      </c>
+      <c r="Q7">
+        <v>23.6044001</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.08876011818041027</v>
+      </c>
+      <c r="T7">
+        <v>0.4862747824145686</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.3</v>
+      </c>
+      <c r="W7">
+        <v>0.01134</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>45.44421722335833</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.08467960228477638</v>
+      </c>
+      <c r="C8">
+        <v>360.7732640900329</v>
+      </c>
+      <c r="D8">
+        <v>369.8552640900329</v>
+      </c>
+      <c r="E8">
+        <v>-65.218</v>
+      </c>
+      <c r="F8">
+        <v>18.582</v>
+      </c>
+      <c r="G8">
+        <v>9.5</v>
+      </c>
+      <c r="H8">
+        <v>225.9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>27.2</v>
+      </c>
+      <c r="K8">
+        <v>15.8</v>
+      </c>
+      <c r="L8">
+        <v>11.4</v>
+      </c>
+      <c r="M8">
+        <v>0.3010283999999999</v>
+      </c>
+      <c r="N8">
+        <v>11.0989716</v>
+      </c>
+      <c r="O8">
+        <v>3.32969148</v>
+      </c>
+      <c r="P8">
+        <v>7.76928012</v>
+      </c>
+      <c r="Q8">
+        <v>23.56928012</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.08936085349444296</v>
+      </c>
+      <c r="T8">
+        <v>0.4899511227071509</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.3</v>
+      </c>
+      <c r="W8">
+        <v>0.01134</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>37.87018101946529</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.084470092298163</v>
+      </c>
+      <c r="C9">
+        <v>358.7071045354727</v>
+      </c>
+      <c r="D9">
+        <v>370.8861045354727</v>
+      </c>
+      <c r="E9">
+        <v>-62.121</v>
+      </c>
+      <c r="F9">
+        <v>21.679</v>
+      </c>
+      <c r="G9">
+        <v>9.5</v>
+      </c>
+      <c r="H9">
+        <v>225.9</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>27.2</v>
+      </c>
+      <c r="K9">
+        <v>15.8</v>
+      </c>
+      <c r="L9">
+        <v>11.4</v>
+      </c>
+      <c r="M9">
+        <v>0.3511998</v>
+      </c>
+      <c r="N9">
+        <v>11.0488002</v>
+      </c>
+      <c r="O9">
+        <v>3.31464006</v>
+      </c>
+      <c r="P9">
+        <v>7.73416014</v>
+      </c>
+      <c r="Q9">
+        <v>23.53416014</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.08997450784748712</v>
+      </c>
+      <c r="T9">
+        <v>0.4937065240812942</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.3</v>
+      </c>
+      <c r="W9">
+        <v>0.01134</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>32.46015515954166</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.08426058231154966</v>
+      </c>
+      <c r="C10">
+        <v>356.6467072458591</v>
+      </c>
+      <c r="D10">
+        <v>371.9227072458591</v>
+      </c>
+      <c r="E10">
+        <v>-59.024</v>
+      </c>
+      <c r="F10">
+        <v>24.776</v>
+      </c>
+      <c r="G10">
+        <v>9.5</v>
+      </c>
+      <c r="H10">
+        <v>225.9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>27.2</v>
+      </c>
+      <c r="K10">
+        <v>15.8</v>
+      </c>
+      <c r="L10">
+        <v>11.4</v>
+      </c>
+      <c r="M10">
+        <v>0.4013712</v>
+      </c>
+      <c r="N10">
+        <v>10.9986288</v>
+      </c>
+      <c r="O10">
+        <v>3.29958864</v>
+      </c>
+      <c r="P10">
+        <v>7.699040160000001</v>
+      </c>
+      <c r="Q10">
+        <v>23.49904016</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.09060150251255397</v>
+      </c>
+      <c r="T10">
+        <v>0.4975435646157449</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.3</v>
+      </c>
+      <c r="W10">
+        <v>0.01134</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>28.40263576459896</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.08405107232493626</v>
+      </c>
+      <c r="C11">
+        <v>354.5921206720851</v>
+      </c>
+      <c r="D11">
+        <v>372.9651206720851</v>
+      </c>
+      <c r="E11">
+        <v>-55.927</v>
+      </c>
+      <c r="F11">
+        <v>27.873</v>
+      </c>
+      <c r="G11">
+        <v>9.5</v>
+      </c>
+      <c r="H11">
+        <v>225.9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>27.2</v>
+      </c>
+      <c r="K11">
+        <v>15.8</v>
+      </c>
+      <c r="L11">
+        <v>11.4</v>
+      </c>
+      <c r="M11">
+        <v>0.4515426</v>
+      </c>
+      <c r="N11">
+        <v>10.9484574</v>
+      </c>
+      <c r="O11">
+        <v>3.28453722</v>
+      </c>
+      <c r="P11">
+        <v>7.66392018</v>
+      </c>
+      <c r="Q11">
+        <v>23.46392018</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.09124227728014975</v>
+      </c>
+      <c r="T11">
+        <v>0.5014649357113923</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.3</v>
+      </c>
+      <c r="W11">
+        <v>0.01134</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>25.24678734631019</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.08384156233832291</v>
+      </c>
+      <c r="C12">
+        <v>352.5433938097556</v>
+      </c>
+      <c r="D12">
+        <v>374.0133938097556</v>
+      </c>
+      <c r="E12">
+        <v>-52.83</v>
+      </c>
+      <c r="F12">
+        <v>30.97</v>
+      </c>
+      <c r="G12">
+        <v>9.5</v>
+      </c>
+      <c r="H12">
+        <v>225.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>27.2</v>
+      </c>
+      <c r="K12">
+        <v>15.8</v>
+      </c>
+      <c r="L12">
+        <v>11.4</v>
+      </c>
+      <c r="M12">
+        <v>0.501714</v>
+      </c>
+      <c r="N12">
+        <v>10.898286</v>
+      </c>
+      <c r="O12">
+        <v>3.2694858</v>
+      </c>
+      <c r="P12">
+        <v>7.628800200000001</v>
+      </c>
+      <c r="Q12">
+        <v>23.4288002</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.09189729148702545</v>
+      </c>
+      <c r="T12">
+        <v>0.505473448386943</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.3</v>
+      </c>
+      <c r="W12">
+        <v>0.01134</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>22.72210861167916</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.08363205235170953</v>
+      </c>
+      <c r="C13">
+        <v>350.5005762068666</v>
+      </c>
+      <c r="D13">
+        <v>375.0675762068666</v>
+      </c>
+      <c r="E13">
+        <v>-49.733</v>
+      </c>
+      <c r="F13">
+        <v>34.067</v>
+      </c>
+      <c r="G13">
+        <v>9.5</v>
+      </c>
+      <c r="H13">
+        <v>225.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>27.2</v>
+      </c>
+      <c r="K13">
+        <v>15.8</v>
+      </c>
+      <c r="L13">
+        <v>11.4</v>
+      </c>
+      <c r="M13">
+        <v>0.5518854</v>
+      </c>
+      <c r="N13">
+        <v>10.8481146</v>
+      </c>
+      <c r="O13">
+        <v>3.25443438</v>
+      </c>
+      <c r="P13">
+        <v>7.59368022</v>
+      </c>
+      <c r="Q13">
+        <v>23.39368022</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.09256702511428037</v>
+      </c>
+      <c r="T13">
+        <v>0.5095720399990229</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.3</v>
+      </c>
+      <c r="W13">
+        <v>0.01134</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>20.65646237425379</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.08342254236509616</v>
+      </c>
+      <c r="C14">
+        <v>348.4637179716101</v>
+      </c>
+      <c r="D14">
+        <v>376.1277179716101</v>
+      </c>
+      <c r="E14">
+        <v>-46.636</v>
+      </c>
+      <c r="F14">
+        <v>37.16399999999999</v>
+      </c>
+      <c r="G14">
+        <v>9.5</v>
+      </c>
+      <c r="H14">
+        <v>225.9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>27.2</v>
+      </c>
+      <c r="K14">
+        <v>15.8</v>
+      </c>
+      <c r="L14">
+        <v>11.4</v>
+      </c>
+      <c r="M14">
+        <v>0.6020567999999998</v>
+      </c>
+      <c r="N14">
+        <v>10.7979432</v>
+      </c>
+      <c r="O14">
+        <v>3.23938296</v>
+      </c>
+      <c r="P14">
+        <v>7.55856024</v>
+      </c>
+      <c r="Q14">
+        <v>23.35856024</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.09325197996033656</v>
+      </c>
+      <c r="T14">
+        <v>0.5137637814204683</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.3</v>
+      </c>
+      <c r="W14">
+        <v>0.01134</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>18.93509050973264</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.08321303237848279</v>
+      </c>
+      <c r="C15">
+        <v>346.4328697803145</v>
+      </c>
+      <c r="D15">
+        <v>377.1938697803146</v>
+      </c>
+      <c r="E15">
+        <v>-43.53899999999999</v>
+      </c>
+      <c r="F15">
+        <v>40.261</v>
+      </c>
+      <c r="G15">
+        <v>9.5</v>
+      </c>
+      <c r="H15">
+        <v>225.9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>27.2</v>
+      </c>
+      <c r="K15">
+        <v>15.8</v>
+      </c>
+      <c r="L15">
+        <v>11.4</v>
+      </c>
+      <c r="M15">
+        <v>0.6522282</v>
+      </c>
+      <c r="N15">
+        <v>10.7477718</v>
+      </c>
+      <c r="O15">
+        <v>3.22433154</v>
+      </c>
+      <c r="P15">
+        <v>7.523440260000001</v>
+      </c>
+      <c r="Q15">
+        <v>23.32344026</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.09395268089480781</v>
+      </c>
+      <c r="T15">
+        <v>0.518051884713671</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.3</v>
+      </c>
+      <c r="W15">
+        <v>0.01134</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>17.47854508590705</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.08300352239186944</v>
+      </c>
+      <c r="C16">
+        <v>344.4080828855193</v>
+      </c>
+      <c r="D16">
+        <v>378.2660828855193</v>
+      </c>
+      <c r="E16">
+        <v>-40.44199999999999</v>
+      </c>
+      <c r="F16">
+        <v>43.358</v>
+      </c>
+      <c r="G16">
+        <v>9.5</v>
+      </c>
+      <c r="H16">
+        <v>225.9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>27.2</v>
+      </c>
+      <c r="K16">
+        <v>15.8</v>
+      </c>
+      <c r="L16">
+        <v>11.4</v>
+      </c>
+      <c r="M16">
+        <v>0.7023996</v>
+      </c>
+      <c r="N16">
+        <v>10.6976004</v>
+      </c>
+      <c r="O16">
+        <v>3.20928012</v>
+      </c>
+      <c r="P16">
+        <v>7.48832028</v>
+      </c>
+      <c r="Q16">
+        <v>23.28832028</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.09466967719984819</v>
+      </c>
+      <c r="T16">
+        <v>0.5224397113392739</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.3</v>
+      </c>
+      <c r="W16">
+        <v>0.01134</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>16.23007757977083</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.08279401240525605</v>
+      </c>
+      <c r="C17">
+        <v>342.3894091241881</v>
+      </c>
+      <c r="D17">
+        <v>379.3444091241881</v>
+      </c>
+      <c r="E17">
+        <v>-37.345</v>
+      </c>
+      <c r="F17">
+        <v>46.455</v>
+      </c>
+      <c r="G17">
+        <v>9.5</v>
+      </c>
+      <c r="H17">
+        <v>225.9</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>27.2</v>
+      </c>
+      <c r="K17">
+        <v>15.8</v>
+      </c>
+      <c r="L17">
+        <v>11.4</v>
+      </c>
+      <c r="M17">
+        <v>0.7525709999999999</v>
+      </c>
+      <c r="N17">
+        <v>10.647429</v>
+      </c>
+      <c r="O17">
+        <v>3.1942287</v>
+      </c>
+      <c r="P17">
+        <v>7.453200300000001</v>
+      </c>
+      <c r="Q17">
+        <v>23.2532003</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.0954035440061836</v>
+      </c>
+      <c r="T17">
+        <v>0.5269307809443027</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.3</v>
+      </c>
+      <c r="W17">
+        <v>0.01134</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>15.14807240778611</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.08258450241864269</v>
+      </c>
+      <c r="C18">
+        <v>340.3769009260625</v>
+      </c>
+      <c r="D18">
+        <v>380.4289009260626</v>
+      </c>
+      <c r="E18">
+        <v>-34.248</v>
+      </c>
+      <c r="F18">
+        <v>49.552</v>
+      </c>
+      <c r="G18">
+        <v>9.5</v>
+      </c>
+      <c r="H18">
+        <v>225.9</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>27.2</v>
+      </c>
+      <c r="K18">
+        <v>15.8</v>
+      </c>
+      <c r="L18">
+        <v>11.4</v>
+      </c>
+      <c r="M18">
+        <v>0.8027424</v>
+      </c>
+      <c r="N18">
+        <v>10.5972576</v>
+      </c>
+      <c r="O18">
+        <v>3.17917728</v>
+      </c>
+      <c r="P18">
+        <v>7.418080320000001</v>
+      </c>
+      <c r="Q18">
+        <v>23.21808032</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.0961548838317175</v>
+      </c>
+      <c r="T18">
+        <v>0.5315287807780226</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.3</v>
+      </c>
+      <c r="W18">
+        <v>0.01134</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>14.20131788229948</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.08256539243202932</v>
+      </c>
+      <c r="C19">
+        <v>337.3791291013676</v>
+      </c>
+      <c r="D19">
+        <v>380.5281291013676</v>
+      </c>
+      <c r="E19">
+        <v>-31.151</v>
+      </c>
+      <c r="F19">
+        <v>52.649</v>
+      </c>
+      <c r="G19">
+        <v>9.5</v>
+      </c>
+      <c r="H19">
+        <v>225.9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>27.2</v>
+      </c>
+      <c r="K19">
+        <v>15.8</v>
+      </c>
+      <c r="L19">
+        <v>11.4</v>
+      </c>
+      <c r="M19">
+        <v>0.9371522</v>
+      </c>
+      <c r="N19">
+        <v>10.4628478</v>
+      </c>
+      <c r="O19">
+        <v>3.13885434</v>
+      </c>
+      <c r="P19">
+        <v>7.323993460000001</v>
+      </c>
+      <c r="Q19">
+        <v>23.12399346</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.09692432823136063</v>
+      </c>
+      <c r="T19">
+        <v>0.5362375757884587</v>
+      </c>
+      <c r="U19">
+        <v>0.0178</v>
+      </c>
+      <c r="V19">
+        <v>0.3</v>
+      </c>
+      <c r="W19">
+        <v>0.01246</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>12.16451287208204</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08236708244541596</v>
+      </c>
+      <c r="C20">
+        <v>335.3149132999768</v>
+      </c>
+      <c r="D20">
+        <v>381.5609132999768</v>
+      </c>
+      <c r="E20">
+        <v>-28.054</v>
+      </c>
+      <c r="F20">
+        <v>55.746</v>
+      </c>
+      <c r="G20">
+        <v>9.5</v>
+      </c>
+      <c r="H20">
+        <v>225.9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>27.2</v>
+      </c>
+      <c r="K20">
+        <v>15.8</v>
+      </c>
+      <c r="L20">
+        <v>11.4</v>
+      </c>
+      <c r="M20">
+        <v>0.9922787999999999</v>
+      </c>
+      <c r="N20">
+        <v>10.4077212</v>
+      </c>
+      <c r="O20">
+        <v>3.12231636</v>
+      </c>
+      <c r="P20">
+        <v>7.285404840000001</v>
+      </c>
+      <c r="Q20">
+        <v>23.08540484</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.09771253956758043</v>
+      </c>
+      <c r="T20">
+        <v>0.5410612194576858</v>
+      </c>
+      <c r="U20">
+        <v>0.0178</v>
+      </c>
+      <c r="V20">
+        <v>0.3</v>
+      </c>
+      <c r="W20">
+        <v>0.01246</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>11.48870660141082</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08216877245880258</v>
+      </c>
+      <c r="C21">
+        <v>333.2563188755817</v>
+      </c>
+      <c r="D21">
+        <v>382.5993188755817</v>
+      </c>
+      <c r="E21">
+        <v>-24.957</v>
+      </c>
+      <c r="F21">
+        <v>58.843</v>
+      </c>
+      <c r="G21">
+        <v>9.5</v>
+      </c>
+      <c r="H21">
+        <v>225.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>27.2</v>
+      </c>
+      <c r="K21">
+        <v>15.8</v>
+      </c>
+      <c r="L21">
+        <v>11.4</v>
+      </c>
+      <c r="M21">
+        <v>1.0474054</v>
+      </c>
+      <c r="N21">
+        <v>10.3525946</v>
+      </c>
+      <c r="O21">
+        <v>3.10577838</v>
+      </c>
+      <c r="P21">
+        <v>7.246816219999999</v>
+      </c>
+      <c r="Q21">
+        <v>23.04681622</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.09852021291210195</v>
+      </c>
+      <c r="T21">
+        <v>0.5460039654397334</v>
+      </c>
+      <c r="U21">
+        <v>0.0178</v>
+      </c>
+      <c r="V21">
+        <v>0.3</v>
+      </c>
+      <c r="W21">
+        <v>0.01246</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>10.88403783291551</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08227846247218923</v>
+      </c>
+      <c r="C22">
+        <v>329.5842543567152</v>
+      </c>
+      <c r="D22">
+        <v>382.0242543567152</v>
+      </c>
+      <c r="E22">
+        <v>-21.86</v>
+      </c>
+      <c r="F22">
+        <v>61.94</v>
+      </c>
+      <c r="G22">
+        <v>9.5</v>
+      </c>
+      <c r="H22">
+        <v>225.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>27.2</v>
+      </c>
+      <c r="K22">
+        <v>15.8</v>
+      </c>
+      <c r="L22">
+        <v>11.4</v>
+      </c>
+      <c r="M22">
+        <v>1.2388</v>
+      </c>
+      <c r="N22">
+        <v>10.1612</v>
+      </c>
+      <c r="O22">
+        <v>3.04836</v>
+      </c>
+      <c r="P22">
+        <v>7.11284</v>
+      </c>
+      <c r="Q22">
+        <v>22.91284</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.09934807809023653</v>
+      </c>
+      <c r="T22">
+        <v>0.5510702800713323</v>
+      </c>
+      <c r="U22">
+        <v>0.02</v>
+      </c>
+      <c r="V22">
+        <v>0.3</v>
+      </c>
+      <c r="W22">
+        <v>0.014</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>9.202453987730065</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.08209555248557585</v>
+      </c>
+      <c r="C23">
+        <v>327.4471488676363</v>
+      </c>
+      <c r="D23">
+        <v>382.9841488676363</v>
+      </c>
+      <c r="E23">
+        <v>-18.76300000000001</v>
+      </c>
+      <c r="F23">
+        <v>65.03699999999999</v>
+      </c>
+      <c r="G23">
+        <v>9.5</v>
+      </c>
+      <c r="H23">
+        <v>225.9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>27.2</v>
+      </c>
+      <c r="K23">
+        <v>15.8</v>
+      </c>
+      <c r="L23">
+        <v>11.4</v>
+      </c>
+      <c r="M23">
+        <v>1.30074</v>
+      </c>
+      <c r="N23">
+        <v>10.09926</v>
+      </c>
+      <c r="O23">
+        <v>3.029778</v>
+      </c>
+      <c r="P23">
+        <v>7.069482000000001</v>
+      </c>
+      <c r="Q23">
+        <v>22.869482</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1001969018804758</v>
+      </c>
+      <c r="T23">
+        <v>0.5562648558328449</v>
+      </c>
+      <c r="U23">
+        <v>0.02</v>
+      </c>
+      <c r="V23">
+        <v>0.3</v>
+      </c>
+      <c r="W23">
+        <v>0.014</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>8.764241893076253</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.08191264249896248</v>
+      </c>
+      <c r="C24">
+        <v>325.3148792937947</v>
+      </c>
+      <c r="D24">
+        <v>383.9488792937947</v>
+      </c>
+      <c r="E24">
+        <v>-15.666</v>
+      </c>
+      <c r="F24">
+        <v>68.134</v>
+      </c>
+      <c r="G24">
+        <v>9.5</v>
+      </c>
+      <c r="H24">
+        <v>225.9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>27.2</v>
+      </c>
+      <c r="K24">
+        <v>15.8</v>
+      </c>
+      <c r="L24">
+        <v>11.4</v>
+      </c>
+      <c r="M24">
+        <v>1.36268</v>
+      </c>
+      <c r="N24">
+        <v>10.03732</v>
+      </c>
+      <c r="O24">
+        <v>3.011196</v>
+      </c>
+      <c r="P24">
+        <v>7.026124000000001</v>
+      </c>
+      <c r="Q24">
+        <v>22.826124</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1010674903832852</v>
+      </c>
+      <c r="T24">
+        <v>0.5615926258446527</v>
+      </c>
+      <c r="U24">
+        <v>0.02</v>
+      </c>
+      <c r="V24">
+        <v>0.3</v>
+      </c>
+      <c r="W24">
+        <v>0.014</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>8.365867261572784</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.08172973251234909</v>
+      </c>
+      <c r="C25">
+        <v>323.1874822722384</v>
+      </c>
+      <c r="D25">
+        <v>384.9184822722384</v>
+      </c>
+      <c r="E25">
+        <v>-12.569</v>
+      </c>
+      <c r="F25">
+        <v>71.23099999999999</v>
+      </c>
+      <c r="G25">
+        <v>9.5</v>
+      </c>
+      <c r="H25">
+        <v>225.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>27.2</v>
+      </c>
+      <c r="K25">
+        <v>15.8</v>
+      </c>
+      <c r="L25">
+        <v>11.4</v>
+      </c>
+      <c r="M25">
+        <v>1.42462</v>
+      </c>
+      <c r="N25">
+        <v>9.975380000000001</v>
+      </c>
+      <c r="O25">
+        <v>2.992614</v>
+      </c>
+      <c r="P25">
+        <v>6.982766000000002</v>
+      </c>
+      <c r="Q25">
+        <v>22.782766</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1019606915744793</v>
+      </c>
+      <c r="T25">
+        <v>0.567058779493131</v>
+      </c>
+      <c r="U25">
+        <v>0.02</v>
+      </c>
+      <c r="V25">
+        <v>0.3</v>
+      </c>
+      <c r="W25">
+        <v>0.014</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>8.002133902373968</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.08173162252573574</v>
+      </c>
+      <c r="C26">
+        <v>320.0804383016784</v>
+      </c>
+      <c r="D26">
+        <v>384.9084383016784</v>
+      </c>
+      <c r="E26">
+        <v>-9.472000000000008</v>
+      </c>
+      <c r="F26">
+        <v>74.32799999999999</v>
+      </c>
+      <c r="G26">
+        <v>9.5</v>
+      </c>
+      <c r="H26">
+        <v>225.9</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>27.2</v>
+      </c>
+      <c r="K26">
+        <v>15.8</v>
+      </c>
+      <c r="L26">
+        <v>11.4</v>
+      </c>
+      <c r="M26">
+        <v>1.5683208</v>
+      </c>
+      <c r="N26">
+        <v>9.8316792</v>
+      </c>
+      <c r="O26">
+        <v>2.94950376</v>
+      </c>
+      <c r="P26">
+        <v>6.88217544</v>
+      </c>
+      <c r="Q26">
+        <v>22.68217544</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1028773980601786</v>
+      </c>
+      <c r="T26">
+        <v>0.5726687792902534</v>
+      </c>
+      <c r="U26">
+        <v>0.0211</v>
+      </c>
+      <c r="V26">
+        <v>0.3</v>
+      </c>
+      <c r="W26">
+        <v>0.01477</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>7.268921001366558</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.08155641253912237</v>
+      </c>
+      <c r="C27">
+        <v>317.9167783327199</v>
+      </c>
+      <c r="D27">
+        <v>385.8417783327199</v>
+      </c>
+      <c r="E27">
+        <v>-6.375</v>
+      </c>
+      <c r="F27">
+        <v>77.425</v>
+      </c>
+      <c r="G27">
+        <v>9.5</v>
+      </c>
+      <c r="H27">
+        <v>225.9</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>27.2</v>
+      </c>
+      <c r="K27">
+        <v>15.8</v>
+      </c>
+      <c r="L27">
+        <v>11.4</v>
+      </c>
+      <c r="M27">
+        <v>1.6336675</v>
+      </c>
+      <c r="N27">
+        <v>9.766332500000001</v>
+      </c>
+      <c r="O27">
+        <v>2.92989975</v>
+      </c>
+      <c r="P27">
+        <v>6.83643275</v>
+      </c>
+      <c r="Q27">
+        <v>22.63643275</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1038185500521632</v>
+      </c>
+      <c r="T27">
+        <v>0.5784283790819658</v>
+      </c>
+      <c r="U27">
+        <v>0.0211</v>
+      </c>
+      <c r="V27">
+        <v>0.3</v>
+      </c>
+      <c r="W27">
+        <v>0.01477</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>6.978164161311895</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.081381202552509</v>
+      </c>
+      <c r="C28">
+        <v>315.7576557601574</v>
+      </c>
+      <c r="D28">
+        <v>386.7796557601574</v>
+      </c>
+      <c r="E28">
+        <v>-3.277999999999992</v>
+      </c>
+      <c r="F28">
+        <v>80.52200000000001</v>
+      </c>
+      <c r="G28">
+        <v>9.5</v>
+      </c>
+      <c r="H28">
+        <v>225.9</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>27.2</v>
+      </c>
+      <c r="K28">
+        <v>15.8</v>
+      </c>
+      <c r="L28">
+        <v>11.4</v>
+      </c>
+      <c r="M28">
+        <v>1.6990142</v>
+      </c>
+      <c r="N28">
+        <v>9.7009858</v>
+      </c>
+      <c r="O28">
+        <v>2.91029574</v>
+      </c>
+      <c r="P28">
+        <v>6.790690059999999</v>
+      </c>
+      <c r="Q28">
+        <v>22.59069006</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1047851385844716</v>
+      </c>
+      <c r="T28">
+        <v>0.5843436437329135</v>
+      </c>
+      <c r="U28">
+        <v>0.0211</v>
+      </c>
+      <c r="V28">
+        <v>0.3</v>
+      </c>
+      <c r="W28">
+        <v>0.01477</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>6.709773232030668</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.08120599256589563</v>
+      </c>
+      <c r="C29">
+        <v>313.6031037521792</v>
+      </c>
+      <c r="D29">
+        <v>387.7221037521792</v>
+      </c>
+      <c r="E29">
+        <v>-0.1809999999999974</v>
+      </c>
+      <c r="F29">
+        <v>83.619</v>
+      </c>
+      <c r="G29">
+        <v>9.5</v>
+      </c>
+      <c r="H29">
+        <v>225.9</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>27.2</v>
+      </c>
+      <c r="K29">
+        <v>15.8</v>
+      </c>
+      <c r="L29">
+        <v>11.4</v>
+      </c>
+      <c r="M29">
+        <v>1.7643609</v>
+      </c>
+      <c r="N29">
+        <v>9.635639100000001</v>
+      </c>
+      <c r="O29">
+        <v>2.89069173</v>
+      </c>
+      <c r="P29">
+        <v>6.74494737</v>
+      </c>
+      <c r="Q29">
+        <v>22.54494737</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1057782089943776</v>
+      </c>
+      <c r="T29">
+        <v>0.5904209704290928</v>
+      </c>
+      <c r="U29">
+        <v>0.0211</v>
+      </c>
+      <c r="V29">
+        <v>0.3</v>
+      </c>
+      <c r="W29">
+        <v>0.01477</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>6.461263112325829</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.08132478257928226</v>
+      </c>
+      <c r="C30">
+        <v>309.8666361655285</v>
+      </c>
+      <c r="D30">
+        <v>387.0826361655285</v>
+      </c>
+      <c r="E30">
+        <v>2.916000000000011</v>
+      </c>
+      <c r="F30">
+        <v>86.71600000000001</v>
+      </c>
+      <c r="G30">
+        <v>9.5</v>
+      </c>
+      <c r="H30">
+        <v>225.9</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>27.2</v>
+      </c>
+      <c r="K30">
+        <v>15.8</v>
+      </c>
+      <c r="L30">
+        <v>11.4</v>
+      </c>
+      <c r="M30">
+        <v>1.9597816</v>
+      </c>
+      <c r="N30">
+        <v>9.440218400000001</v>
+      </c>
+      <c r="O30">
+        <v>2.83206552</v>
+      </c>
+      <c r="P30">
+        <v>6.60815288</v>
+      </c>
+      <c r="Q30">
+        <v>22.40815288</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1067988646934476</v>
+      </c>
+      <c r="T30">
+        <v>0.5966671117557214</v>
+      </c>
+      <c r="U30">
+        <v>0.0226</v>
+      </c>
+      <c r="V30">
+        <v>0.3</v>
+      </c>
+      <c r="W30">
+        <v>0.01582</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>5.816974707793971</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.0811600725926689</v>
+      </c>
+      <c r="C31">
+        <v>307.656865659193</v>
+      </c>
+      <c r="D31">
+        <v>387.969865659193</v>
+      </c>
+      <c r="E31">
+        <v>6.012999999999991</v>
+      </c>
+      <c r="F31">
+        <v>89.81299999999999</v>
+      </c>
+      <c r="G31">
+        <v>9.5</v>
+      </c>
+      <c r="H31">
+        <v>225.9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>27.2</v>
+      </c>
+      <c r="K31">
+        <v>15.8</v>
+      </c>
+      <c r="L31">
+        <v>11.4</v>
+      </c>
+      <c r="M31">
+        <v>2.0297738</v>
+      </c>
+      <c r="N31">
+        <v>9.370226200000001</v>
+      </c>
+      <c r="O31">
+        <v>2.81106786</v>
+      </c>
+      <c r="P31">
+        <v>6.559158340000002</v>
+      </c>
+      <c r="Q31">
+        <v>22.35915834</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1078482712572801</v>
+      </c>
+      <c r="T31">
+        <v>0.6030892007253538</v>
+      </c>
+      <c r="U31">
+        <v>0.0226</v>
+      </c>
+      <c r="V31">
+        <v>0.3</v>
+      </c>
+      <c r="W31">
+        <v>0.01582</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>5.616389373042455</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.08099536260605551</v>
+      </c>
+      <c r="C32">
+        <v>305.4511717221841</v>
+      </c>
+      <c r="D32">
+        <v>388.8611717221841</v>
+      </c>
+      <c r="E32">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="F32">
+        <v>92.91</v>
+      </c>
+      <c r="G32">
+        <v>9.5</v>
+      </c>
+      <c r="H32">
+        <v>225.9</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>27.2</v>
+      </c>
+      <c r="K32">
+        <v>15.8</v>
+      </c>
+      <c r="L32">
+        <v>11.4</v>
+      </c>
+      <c r="M32">
+        <v>2.099766</v>
+      </c>
+      <c r="N32">
+        <v>9.300234</v>
+      </c>
+      <c r="O32">
+        <v>2.7900702</v>
+      </c>
+      <c r="P32">
+        <v>6.5101638</v>
+      </c>
+      <c r="Q32">
+        <v>22.3101638</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1089276608657936</v>
+      </c>
+      <c r="T32">
+        <v>0.6096947779512613</v>
+      </c>
+      <c r="U32">
+        <v>0.0226</v>
+      </c>
+      <c r="V32">
+        <v>0.3</v>
+      </c>
+      <c r="W32">
+        <v>0.01582</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>5.42917639394104</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.08083065261944214</v>
+      </c>
+      <c r="C33">
+        <v>303.2495825152266</v>
+      </c>
+      <c r="D33">
+        <v>389.7565825152266</v>
+      </c>
+      <c r="E33">
+        <v>12.20699999999999</v>
+      </c>
+      <c r="F33">
+        <v>96.00699999999999</v>
+      </c>
+      <c r="G33">
+        <v>9.5</v>
+      </c>
+      <c r="H33">
+        <v>225.9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>27.2</v>
+      </c>
+      <c r="K33">
+        <v>15.8</v>
+      </c>
+      <c r="L33">
+        <v>11.4</v>
+      </c>
+      <c r="M33">
+        <v>2.1697582</v>
+      </c>
+      <c r="N33">
+        <v>9.230241800000002</v>
+      </c>
+      <c r="O33">
+        <v>2.76907254</v>
+      </c>
+      <c r="P33">
+        <v>6.461169260000002</v>
+      </c>
+      <c r="Q33">
+        <v>22.26116926</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1100383371296263</v>
+      </c>
+      <c r="T33">
+        <v>0.6164918211837167</v>
+      </c>
+      <c r="U33">
+        <v>0.0226</v>
+      </c>
+      <c r="V33">
+        <v>0.3</v>
+      </c>
+      <c r="W33">
+        <v>0.01582</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>5.254041671555846</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.08066594263282877</v>
+      </c>
+      <c r="C34">
+        <v>301.0521264590213</v>
+      </c>
+      <c r="D34">
+        <v>390.6561264590213</v>
+      </c>
+      <c r="E34">
+        <v>15.304</v>
+      </c>
+      <c r="F34">
+        <v>99.104</v>
+      </c>
+      <c r="G34">
+        <v>9.5</v>
+      </c>
+      <c r="H34">
+        <v>225.9</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>27.2</v>
+      </c>
+      <c r="K34">
+        <v>15.8</v>
+      </c>
+      <c r="L34">
+        <v>11.4</v>
+      </c>
+      <c r="M34">
+        <v>2.2397504</v>
+      </c>
+      <c r="N34">
+        <v>9.1602496</v>
+      </c>
+      <c r="O34">
+        <v>2.74807488</v>
+      </c>
+      <c r="P34">
+        <v>6.41217472</v>
+      </c>
+      <c r="Q34">
+        <v>22.21217472</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1111816803423953</v>
+      </c>
+      <c r="T34">
+        <v>0.6234887774524209</v>
+      </c>
+      <c r="U34">
+        <v>0.0226</v>
+      </c>
+      <c r="V34">
+        <v>0.3</v>
+      </c>
+      <c r="W34">
+        <v>0.01582</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>5.089852869319725</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.08050123264621541</v>
+      </c>
+      <c r="C35">
+        <v>298.8588322372514</v>
+      </c>
+      <c r="D35">
+        <v>391.5598322372514</v>
+      </c>
+      <c r="E35">
+        <v>18.40100000000001</v>
+      </c>
+      <c r="F35">
+        <v>102.201</v>
+      </c>
+      <c r="G35">
+        <v>9.5</v>
+      </c>
+      <c r="H35">
+        <v>225.9</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>27.2</v>
+      </c>
+      <c r="K35">
+        <v>15.8</v>
+      </c>
+      <c r="L35">
+        <v>11.4</v>
+      </c>
+      <c r="M35">
+        <v>2.3097426</v>
+      </c>
+      <c r="N35">
+        <v>9.0902574</v>
+      </c>
+      <c r="O35">
+        <v>2.72707722</v>
+      </c>
+      <c r="P35">
+        <v>6.363180180000001</v>
+      </c>
+      <c r="Q35">
+        <v>22.16318018</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1123591532033066</v>
+      </c>
+      <c r="T35">
+        <v>0.6306945980873552</v>
+      </c>
+      <c r="U35">
+        <v>0.0226</v>
+      </c>
+      <c r="V35">
+        <v>0.3</v>
+      </c>
+      <c r="W35">
+        <v>0.01582</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>4.935614903582763</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.08033652265960203</v>
+      </c>
+      <c r="C36">
+        <v>296.6697287996321</v>
+      </c>
+      <c r="D36">
+        <v>392.4677287996321</v>
+      </c>
+      <c r="E36">
+        <v>21.498</v>
+      </c>
+      <c r="F36">
+        <v>105.298</v>
+      </c>
+      <c r="G36">
+        <v>9.5</v>
+      </c>
+      <c r="H36">
+        <v>225.9</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>27.2</v>
+      </c>
+      <c r="K36">
+        <v>15.8</v>
+      </c>
+      <c r="L36">
+        <v>11.4</v>
+      </c>
+      <c r="M36">
+        <v>2.3797348</v>
+      </c>
+      <c r="N36">
+        <v>9.020265200000001</v>
+      </c>
+      <c r="O36">
+        <v>2.70607956</v>
+      </c>
+      <c r="P36">
+        <v>6.314185640000001</v>
+      </c>
+      <c r="Q36">
+        <v>22.11418564</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1135723070600031</v>
+      </c>
+      <c r="T36">
+        <v>0.638118776923348</v>
+      </c>
+      <c r="U36">
+        <v>0.0226</v>
+      </c>
+      <c r="V36">
+        <v>0.3</v>
+      </c>
+      <c r="W36">
+        <v>0.01582</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>4.79044975935974</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.08017181267298866</v>
+      </c>
+      <c r="C37">
+        <v>294.4848453650012</v>
+      </c>
+      <c r="D37">
+        <v>393.3798453650012</v>
+      </c>
+      <c r="E37">
+        <v>24.59500000000001</v>
+      </c>
+      <c r="F37">
+        <v>108.395</v>
+      </c>
+      <c r="G37">
+        <v>9.5</v>
+      </c>
+      <c r="H37">
+        <v>225.9</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>27.2</v>
+      </c>
+      <c r="K37">
+        <v>15.8</v>
+      </c>
+      <c r="L37">
+        <v>11.4</v>
+      </c>
+      <c r="M37">
+        <v>2.449727</v>
+      </c>
+      <c r="N37">
+        <v>8.950272999999999</v>
+      </c>
+      <c r="O37">
+        <v>2.6850819</v>
+      </c>
+      <c r="P37">
+        <v>6.265191099999999</v>
+      </c>
+      <c r="Q37">
+        <v>22.0651911</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1148227887276749</v>
+      </c>
+      <c r="T37">
+        <v>0.6457713920312175</v>
+      </c>
+      <c r="U37">
+        <v>0.0226</v>
+      </c>
+      <c r="V37">
+        <v>0.3</v>
+      </c>
+      <c r="W37">
+        <v>0.01582</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>4.653579766235175</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.08000710268637529</v>
+      </c>
+      <c r="C38">
+        <v>292.304211424454</v>
+      </c>
+      <c r="D38">
+        <v>394.296211424454</v>
+      </c>
+      <c r="E38">
+        <v>27.69199999999999</v>
+      </c>
+      <c r="F38">
+        <v>111.492</v>
+      </c>
+      <c r="G38">
+        <v>9.5</v>
+      </c>
+      <c r="H38">
+        <v>225.9</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>27.2</v>
+      </c>
+      <c r="K38">
+        <v>15.8</v>
+      </c>
+      <c r="L38">
+        <v>11.4</v>
+      </c>
+      <c r="M38">
+        <v>2.519719199999999</v>
+      </c>
+      <c r="N38">
+        <v>8.880280800000001</v>
+      </c>
+      <c r="O38">
+        <v>2.66408424</v>
+      </c>
+      <c r="P38">
+        <v>6.216196560000001</v>
+      </c>
+      <c r="Q38">
+        <v>22.01619656</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1161123479474614</v>
+      </c>
+      <c r="T38">
+        <v>0.6536631513612079</v>
+      </c>
+      <c r="U38">
+        <v>0.0226</v>
+      </c>
+      <c r="V38">
+        <v>0.3</v>
+      </c>
+      <c r="W38">
+        <v>0.01582</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>4.524313661617533</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1040185483434772</v>
+      </c>
+      <c r="C39">
+        <v>189.2518994079833</v>
+      </c>
+      <c r="D39">
+        <v>294.3408994079833</v>
+      </c>
+      <c r="E39">
+        <v>30.789</v>
+      </c>
+      <c r="F39">
+        <v>114.589</v>
+      </c>
+      <c r="G39">
+        <v>9.5</v>
+      </c>
+      <c r="H39">
+        <v>225.9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>27.2</v>
+      </c>
+      <c r="K39">
+        <v>15.8</v>
+      </c>
+      <c r="L39">
+        <v>11.4</v>
+      </c>
+      <c r="M39">
+        <v>12.490201</v>
+      </c>
+      <c r="N39">
+        <v>-1.090200999999999</v>
+      </c>
+      <c r="O39">
+        <v>-0.3270602999999996</v>
+      </c>
+      <c r="P39">
+        <v>-0.763140699999999</v>
+      </c>
+      <c r="Q39">
+        <v>15.0368593</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1186214176646877</v>
+      </c>
+      <c r="T39">
+        <v>0.6690179904773166</v>
+      </c>
+      <c r="U39">
+        <v>0.109</v>
+      </c>
+      <c r="V39">
+        <v>0.2738146487794712</v>
+      </c>
+      <c r="W39">
+        <v>0.07915420328303763</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.9127154959315708</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1050155483434771</v>
+      </c>
+      <c r="C40">
+        <v>183.0889620363801</v>
+      </c>
+      <c r="D40">
+        <v>291.2749620363801</v>
+      </c>
+      <c r="E40">
+        <v>33.886</v>
+      </c>
+      <c r="F40">
+        <v>117.686</v>
+      </c>
+      <c r="G40">
+        <v>9.5</v>
+      </c>
+      <c r="H40">
+        <v>225.9</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>27.2</v>
+      </c>
+      <c r="K40">
+        <v>15.8</v>
+      </c>
+      <c r="L40">
+        <v>11.4</v>
+      </c>
+      <c r="M40">
+        <v>12.827774</v>
+      </c>
+      <c r="N40">
+        <v>-1.427773999999999</v>
+      </c>
+      <c r="O40">
+        <v>-0.4283321999999998</v>
+      </c>
+      <c r="P40">
+        <v>-0.9994417999999996</v>
+      </c>
+      <c r="Q40">
+        <v>14.8005582</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1203846663366988</v>
+      </c>
+      <c r="T40">
+        <v>0.6798086032269508</v>
+      </c>
+      <c r="U40">
+        <v>0.109</v>
+      </c>
+      <c r="V40">
+        <v>0.2666090001273799</v>
+      </c>
+      <c r="W40">
+        <v>0.0799396189861156</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.8886966670912663</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1060125483434772</v>
+      </c>
+      <c r="C41">
+        <v>176.9892375489753</v>
+      </c>
+      <c r="D41">
+        <v>288.2722375489753</v>
+      </c>
+      <c r="E41">
+        <v>36.983</v>
+      </c>
+      <c r="F41">
+        <v>120.783</v>
+      </c>
+      <c r="G41">
+        <v>9.5</v>
+      </c>
+      <c r="H41">
+        <v>225.9</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>27.2</v>
+      </c>
+      <c r="K41">
+        <v>15.8</v>
+      </c>
+      <c r="L41">
+        <v>11.4</v>
+      </c>
+      <c r="M41">
+        <v>13.165347</v>
+      </c>
+      <c r="N41">
+        <v>-1.765347</v>
+      </c>
+      <c r="O41">
+        <v>-0.5296041</v>
+      </c>
+      <c r="P41">
+        <v>-1.2357429</v>
+      </c>
+      <c r="Q41">
+        <v>14.5642571</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1222057264405791</v>
+      </c>
+      <c r="T41">
+        <v>0.6909530065585402</v>
+      </c>
+      <c r="U41">
+        <v>0.109</v>
+      </c>
+      <c r="V41">
+        <v>0.2597728719189855</v>
+      </c>
+      <c r="W41">
+        <v>0.08068475696083058</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.865909573063285</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1070095483434772</v>
+      </c>
+      <c r="C42">
+        <v>170.9507909277505</v>
+      </c>
+      <c r="D42">
+        <v>285.3307909277505</v>
+      </c>
+      <c r="E42">
+        <v>40.08</v>
+      </c>
+      <c r="F42">
+        <v>123.88</v>
+      </c>
+      <c r="G42">
+        <v>9.5</v>
+      </c>
+      <c r="H42">
+        <v>225.9</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>27.2</v>
+      </c>
+      <c r="K42">
+        <v>15.8</v>
+      </c>
+      <c r="L42">
+        <v>11.4</v>
+      </c>
+      <c r="M42">
+        <v>13.50292</v>
+      </c>
+      <c r="N42">
+        <v>-2.102919999999999</v>
+      </c>
+      <c r="O42">
+        <v>-0.6308759999999998</v>
+      </c>
+      <c r="P42">
+        <v>-1.472043999999999</v>
+      </c>
+      <c r="Q42">
+        <v>14.327956</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1240874885479221</v>
+      </c>
+      <c r="T42">
+        <v>0.7024688900011826</v>
+      </c>
+      <c r="U42">
+        <v>0.109</v>
+      </c>
+      <c r="V42">
+        <v>0.2532785501210109</v>
+      </c>
+      <c r="W42">
+        <v>0.08139263803680982</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.8442618337367029</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1080065483434772</v>
+      </c>
+      <c r="C43">
+        <v>164.9717653344225</v>
+      </c>
+      <c r="D43">
+        <v>282.4487653344225</v>
+      </c>
+      <c r="E43">
+        <v>43.17700000000001</v>
+      </c>
+      <c r="F43">
+        <v>126.977</v>
+      </c>
+      <c r="G43">
+        <v>9.5</v>
+      </c>
+      <c r="H43">
+        <v>225.9</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>27.2</v>
+      </c>
+      <c r="K43">
+        <v>15.8</v>
+      </c>
+      <c r="L43">
+        <v>11.4</v>
+      </c>
+      <c r="M43">
+        <v>13.840493</v>
+      </c>
+      <c r="N43">
+        <v>-2.440493</v>
+      </c>
+      <c r="O43">
+        <v>-0.7321479</v>
+      </c>
+      <c r="P43">
+        <v>-1.7083451</v>
+      </c>
+      <c r="Q43">
+        <v>14.0916549</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1260330392012767</v>
+      </c>
+      <c r="T43">
+        <v>0.7143751423740839</v>
+      </c>
+      <c r="U43">
+        <v>0.109</v>
+      </c>
+      <c r="V43">
+        <v>0.2471010245083033</v>
+      </c>
+      <c r="W43">
+        <v>0.08206598832859494</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.8236700816943443</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1090035483434772</v>
+      </c>
+      <c r="C44">
+        <v>159.0503782015964</v>
+      </c>
+      <c r="D44">
+        <v>279.6243782015964</v>
+      </c>
+      <c r="E44">
+        <v>46.27399999999999</v>
+      </c>
+      <c r="F44">
+        <v>130.074</v>
+      </c>
+      <c r="G44">
+        <v>9.5</v>
+      </c>
+      <c r="H44">
+        <v>225.9</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>27.2</v>
+      </c>
+      <c r="K44">
+        <v>15.8</v>
+      </c>
+      <c r="L44">
+        <v>11.4</v>
+      </c>
+      <c r="M44">
+        <v>14.178066</v>
+      </c>
+      <c r="N44">
+        <v>-2.778065999999997</v>
+      </c>
+      <c r="O44">
+        <v>-0.8334197999999992</v>
+      </c>
+      <c r="P44">
+        <v>-1.944646199999998</v>
+      </c>
+      <c r="Q44">
+        <v>13.8553538</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1280456778081952</v>
+      </c>
+      <c r="T44">
+        <v>0.726691955173637</v>
+      </c>
+      <c r="U44">
+        <v>0.109</v>
+      </c>
+      <c r="V44">
+        <v>0.2412176667819151</v>
+      </c>
+      <c r="W44">
+        <v>0.08270727432077125</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.8040588892730505</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1251443805486265</v>
+      </c>
+      <c r="C45">
+        <v>116.9927471580675</v>
+      </c>
+      <c r="D45">
+        <v>240.6637471580675</v>
+      </c>
+      <c r="E45">
+        <v>49.371</v>
+      </c>
+      <c r="F45">
+        <v>133.171</v>
+      </c>
+      <c r="G45">
+        <v>9.5</v>
+      </c>
+      <c r="H45">
+        <v>225.9</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>27.2</v>
+      </c>
+      <c r="K45">
+        <v>15.8</v>
+      </c>
+      <c r="L45">
+        <v>11.4</v>
+      </c>
+      <c r="M45">
+        <v>18.6705742</v>
+      </c>
+      <c r="N45">
+        <v>-7.270574199999997</v>
+      </c>
+      <c r="O45">
+        <v>-2.181172259999999</v>
+      </c>
+      <c r="P45">
+        <v>-5.089401939999998</v>
+      </c>
+      <c r="Q45">
+        <v>10.71059806</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1331602198840397</v>
+      </c>
+      <c r="T45">
+        <v>0.7579915919226619</v>
+      </c>
+      <c r="U45">
+        <v>0.1402</v>
+      </c>
+      <c r="V45">
+        <v>0.183175941102015</v>
+      </c>
+      <c r="W45">
+        <v>0.1145187330574975</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.61058647034005</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1264533805486266</v>
+      </c>
+      <c r="C46">
+        <v>111.2067180958702</v>
+      </c>
+      <c r="D46">
+        <v>237.9747180958702</v>
+      </c>
+      <c r="E46">
+        <v>52.468</v>
+      </c>
+      <c r="F46">
+        <v>136.268</v>
+      </c>
+      <c r="G46">
+        <v>9.5</v>
+      </c>
+      <c r="H46">
+        <v>225.9</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>27.2</v>
+      </c>
+      <c r="K46">
+        <v>15.8</v>
+      </c>
+      <c r="L46">
+        <v>11.4</v>
+      </c>
+      <c r="M46">
+        <v>19.1047736</v>
+      </c>
+      <c r="N46">
+        <v>-7.704773599999998</v>
+      </c>
+      <c r="O46">
+        <v>-2.311432079999999</v>
+      </c>
+      <c r="P46">
+        <v>-5.393341519999998</v>
+      </c>
+      <c r="Q46">
+        <v>10.40665848</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1353720095248261</v>
+      </c>
+      <c r="T46">
+        <v>0.771527156064138</v>
+      </c>
+      <c r="U46">
+        <v>0.1402</v>
+      </c>
+      <c r="V46">
+        <v>0.1790128515315146</v>
+      </c>
+      <c r="W46">
+        <v>0.1151023982152816</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.5967095051050488</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1277623805486266</v>
+      </c>
+      <c r="C47">
+        <v>105.4801161535082</v>
+      </c>
+      <c r="D47">
+        <v>235.3451161535082</v>
+      </c>
+      <c r="E47">
+        <v>55.56500000000001</v>
+      </c>
+      <c r="F47">
+        <v>139.365</v>
+      </c>
+      <c r="G47">
+        <v>9.5</v>
+      </c>
+      <c r="H47">
+        <v>225.9</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>27.2</v>
+      </c>
+      <c r="K47">
+        <v>15.8</v>
+      </c>
+      <c r="L47">
+        <v>11.4</v>
+      </c>
+      <c r="M47">
+        <v>19.538973</v>
+      </c>
+      <c r="N47">
+        <v>-8.138972999999998</v>
+      </c>
+      <c r="O47">
+        <v>-2.441691899999999</v>
+      </c>
+      <c r="P47">
+        <v>-5.697281099999999</v>
+      </c>
+      <c r="Q47">
+        <v>10.1027189</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.137664227879823</v>
+      </c>
+      <c r="T47">
+        <v>0.7855549225380315</v>
+      </c>
+      <c r="U47">
+        <v>0.1402</v>
+      </c>
+      <c r="V47">
+        <v>0.1750347881641476</v>
+      </c>
+      <c r="W47">
+        <v>0.1156601226993865</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.5834492938804922</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1290713805486266</v>
+      </c>
+      <c r="C48">
+        <v>99.81099286634387</v>
+      </c>
+      <c r="D48">
+        <v>232.7729928663439</v>
+      </c>
+      <c r="E48">
+        <v>58.66199999999999</v>
+      </c>
+      <c r="F48">
+        <v>142.462</v>
+      </c>
+      <c r="G48">
+        <v>9.5</v>
+      </c>
+      <c r="H48">
+        <v>225.9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>27.2</v>
+      </c>
+      <c r="K48">
+        <v>15.8</v>
+      </c>
+      <c r="L48">
+        <v>11.4</v>
+      </c>
+      <c r="M48">
+        <v>19.9731724</v>
+      </c>
+      <c r="N48">
+        <v>-8.573172399999995</v>
+      </c>
+      <c r="O48">
+        <v>-2.571951719999999</v>
+      </c>
+      <c r="P48">
+        <v>-6.001220679999997</v>
+      </c>
+      <c r="Q48">
+        <v>9.798779320000001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1400413432109308</v>
+      </c>
+      <c r="T48">
+        <v>0.8001022359183654</v>
+      </c>
+      <c r="U48">
+        <v>0.1402</v>
+      </c>
+      <c r="V48">
+        <v>0.1712296840736227</v>
+      </c>
+      <c r="W48">
+        <v>0.1161935982928781</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.5707656135787424</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1303803805486266</v>
+      </c>
+      <c r="C49">
+        <v>94.19748402914487</v>
+      </c>
+      <c r="D49">
+        <v>230.2564840291449</v>
+      </c>
+      <c r="E49">
+        <v>61.759</v>
+      </c>
+      <c r="F49">
+        <v>145.559</v>
+      </c>
+      <c r="G49">
+        <v>9.5</v>
+      </c>
+      <c r="H49">
+        <v>225.9</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>27.2</v>
+      </c>
+      <c r="K49">
+        <v>15.8</v>
+      </c>
+      <c r="L49">
+        <v>11.4</v>
+      </c>
+      <c r="M49">
+        <v>20.4073718</v>
+      </c>
+      <c r="N49">
+        <v>-9.0073718</v>
+      </c>
+      <c r="O49">
+        <v>-2.70221154</v>
+      </c>
+      <c r="P49">
+        <v>-6.305160259999999</v>
+      </c>
+      <c r="Q49">
+        <v>9.49483974</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1425081610073634</v>
+      </c>
+      <c r="T49">
+        <v>0.8151985045205986</v>
+      </c>
+      <c r="U49">
+        <v>0.1402</v>
+      </c>
+      <c r="V49">
+        <v>0.1675864993060988</v>
+      </c>
+      <c r="W49">
+        <v>0.1167043727972849</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.5586216643536627</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1316893805486266</v>
+      </c>
+      <c r="C50">
+        <v>88.63780519015526</v>
+      </c>
+      <c r="D50">
+        <v>227.7938051901552</v>
+      </c>
+      <c r="E50">
+        <v>64.85599999999998</v>
+      </c>
+      <c r="F50">
+        <v>148.656</v>
+      </c>
+      <c r="G50">
+        <v>9.5</v>
+      </c>
+      <c r="H50">
+        <v>225.9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>27.2</v>
+      </c>
+      <c r="K50">
+        <v>15.8</v>
+      </c>
+      <c r="L50">
+        <v>11.4</v>
+      </c>
+      <c r="M50">
+        <v>20.8415712</v>
+      </c>
+      <c r="N50">
+        <v>-9.441571199999997</v>
+      </c>
+      <c r="O50">
+        <v>-2.832471359999999</v>
+      </c>
+      <c r="P50">
+        <v>-6.609099839999997</v>
+      </c>
+      <c r="Q50">
+        <v>9.190900160000002</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1450698564113512</v>
+      </c>
+      <c r="T50">
+        <v>0.8308753988383025</v>
+      </c>
+      <c r="U50">
+        <v>0.1402</v>
+      </c>
+      <c r="V50">
+        <v>0.1640951139038884</v>
+      </c>
+      <c r="W50">
+        <v>0.1171938650306748</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.5469837130129613</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1329983805486266</v>
+      </c>
+      <c r="C51">
+        <v>83.13024743126289</v>
+      </c>
+      <c r="D51">
+        <v>225.3832474312629</v>
+      </c>
+      <c r="E51">
+        <v>67.95299999999999</v>
+      </c>
+      <c r="F51">
+        <v>151.753</v>
+      </c>
+      <c r="G51">
+        <v>9.5</v>
+      </c>
+      <c r="H51">
+        <v>225.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>27.2</v>
+      </c>
+      <c r="K51">
+        <v>15.8</v>
+      </c>
+      <c r="L51">
+        <v>11.4</v>
+      </c>
+      <c r="M51">
+        <v>21.2757706</v>
+      </c>
+      <c r="N51">
+        <v>-9.875770599999997</v>
+      </c>
+      <c r="O51">
+        <v>-2.962731179999999</v>
+      </c>
+      <c r="P51">
+        <v>-6.913039419999999</v>
+      </c>
+      <c r="Q51">
+        <v>8.88696058</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1477320104586326</v>
+      </c>
+      <c r="T51">
+        <v>0.8471670733253279</v>
+      </c>
+      <c r="U51">
+        <v>0.1402</v>
+      </c>
+      <c r="V51">
+        <v>0.1607462340282989</v>
+      </c>
+      <c r="W51">
+        <v>0.1176633779892325</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.5358207800943295</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1343073805486266</v>
+      </c>
+      <c r="C52">
+        <v>77.67317341329107</v>
+      </c>
+      <c r="D52">
+        <v>223.0231734132911</v>
+      </c>
+      <c r="E52">
+        <v>71.05</v>
+      </c>
+      <c r="F52">
+        <v>154.85</v>
+      </c>
+      <c r="G52">
+        <v>9.5</v>
+      </c>
+      <c r="H52">
+        <v>225.9</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>27.2</v>
+      </c>
+      <c r="K52">
+        <v>15.8</v>
+      </c>
+      <c r="L52">
+        <v>11.4</v>
+      </c>
+      <c r="M52">
+        <v>21.70997</v>
+      </c>
+      <c r="N52">
+        <v>-10.30997</v>
+      </c>
+      <c r="O52">
+        <v>-3.092990999999999</v>
+      </c>
+      <c r="P52">
+        <v>-7.216978999999998</v>
+      </c>
+      <c r="Q52">
+        <v>8.583021</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1505006506678053</v>
+      </c>
+      <c r="T52">
+        <v>0.8641104147918346</v>
+      </c>
+      <c r="U52">
+        <v>0.1402</v>
+      </c>
+      <c r="V52">
+        <v>0.1575313093477329</v>
+      </c>
+      <c r="W52">
+        <v>0.1181141104294478</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.5251043644924429</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1356163805486265</v>
+      </c>
+      <c r="C53">
+        <v>72.2650136671835</v>
+      </c>
+      <c r="D53">
+        <v>220.7120136671835</v>
+      </c>
+      <c r="E53">
+        <v>74.14700000000001</v>
+      </c>
+      <c r="F53">
+        <v>157.947</v>
+      </c>
+      <c r="G53">
+        <v>9.5</v>
+      </c>
+      <c r="H53">
+        <v>225.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>27.2</v>
+      </c>
+      <c r="K53">
+        <v>15.8</v>
+      </c>
+      <c r="L53">
+        <v>11.4</v>
+      </c>
+      <c r="M53">
+        <v>22.1441694</v>
+      </c>
+      <c r="N53">
+        <v>-10.7441694</v>
+      </c>
+      <c r="O53">
+        <v>-3.22325082</v>
+      </c>
+      <c r="P53">
+        <v>-7.520918579999999</v>
+      </c>
+      <c r="Q53">
+        <v>8.279081420000001</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1533822965998013</v>
+      </c>
+      <c r="T53">
+        <v>0.8817453212161577</v>
+      </c>
+      <c r="U53">
+        <v>0.1402</v>
+      </c>
+      <c r="V53">
+        <v>0.1544424601448361</v>
+      </c>
+      <c r="W53">
+        <v>0.118547167087694</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.5148082004827872</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1369253805486265</v>
+      </c>
+      <c r="C54">
+        <v>66.90426311342691</v>
+      </c>
+      <c r="D54">
+        <v>218.4482631134269</v>
+      </c>
+      <c r="E54">
+        <v>77.24400000000001</v>
+      </c>
+      <c r="F54">
+        <v>161.044</v>
+      </c>
+      <c r="G54">
+        <v>9.5</v>
+      </c>
+      <c r="H54">
+        <v>225.9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>27.2</v>
+      </c>
+      <c r="K54">
+        <v>15.8</v>
+      </c>
+      <c r="L54">
+        <v>11.4</v>
+      </c>
+      <c r="M54">
+        <v>22.5783688</v>
+      </c>
+      <c r="N54">
+        <v>-11.1783688</v>
+      </c>
+      <c r="O54">
+        <v>-3.35351064</v>
+      </c>
+      <c r="P54">
+        <v>-7.82485816</v>
+      </c>
+      <c r="Q54">
+        <v>7.975141839999999</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1563840111122972</v>
+      </c>
+      <c r="T54">
+        <v>0.9001150154081611</v>
+      </c>
+      <c r="U54">
+        <v>0.1402</v>
+      </c>
+      <c r="V54">
+        <v>0.1514724128343585</v>
+      </c>
+      <c r="W54">
+        <v>0.1189635677206229</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.5049080427811952</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1627187798620131</v>
+      </c>
+      <c r="C55">
+        <v>27.08083832457052</v>
+      </c>
+      <c r="D55">
+        <v>181.7218383245705</v>
+      </c>
+      <c r="E55">
+        <v>80.34099999999999</v>
+      </c>
+      <c r="F55">
+        <v>164.141</v>
+      </c>
+      <c r="G55">
+        <v>9.5</v>
+      </c>
+      <c r="H55">
+        <v>225.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>27.2</v>
+      </c>
+      <c r="K55">
+        <v>15.8</v>
+      </c>
+      <c r="L55">
+        <v>11.4</v>
+      </c>
+      <c r="M55">
+        <v>30.1527017</v>
+      </c>
+      <c r="N55">
+        <v>-18.7527017</v>
+      </c>
+      <c r="O55">
+        <v>-5.625810509999998</v>
+      </c>
+      <c r="P55">
+        <v>-13.12689119</v>
+      </c>
+      <c r="Q55">
+        <v>2.67310881</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1625547332921045</v>
+      </c>
+      <c r="T55">
+        <v>0.9378781933902742</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.113422672171363</v>
+      </c>
+      <c r="W55">
+        <v>0.1628642551221206</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.3780755739045435</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1644627798620131</v>
+      </c>
+      <c r="C56">
+        <v>21.94131958186756</v>
+      </c>
+      <c r="D56">
+        <v>179.6793195818676</v>
+      </c>
+      <c r="E56">
+        <v>83.438</v>
+      </c>
+      <c r="F56">
+        <v>167.238</v>
+      </c>
+      <c r="G56">
+        <v>9.5</v>
+      </c>
+      <c r="H56">
+        <v>225.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>27.2</v>
+      </c>
+      <c r="K56">
+        <v>15.8</v>
+      </c>
+      <c r="L56">
+        <v>11.4</v>
+      </c>
+      <c r="M56">
+        <v>30.7216206</v>
+      </c>
+      <c r="N56">
+        <v>-19.3216206</v>
+      </c>
+      <c r="O56">
+        <v>-5.79648618</v>
+      </c>
+      <c r="P56">
+        <v>-13.52513442</v>
+      </c>
+      <c r="Q56">
+        <v>2.274865579999997</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1658863579288894</v>
+      </c>
+      <c r="T56">
+        <v>0.9582668497683237</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.1113222523163378</v>
+      </c>
+      <c r="W56">
+        <v>0.1632501022494888</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.3710741743877924</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.166206779862013</v>
+      </c>
+      <c r="C57">
+        <v>16.84720553984624</v>
+      </c>
+      <c r="D57">
+        <v>177.6822055398463</v>
+      </c>
+      <c r="E57">
+        <v>86.53500000000001</v>
+      </c>
+      <c r="F57">
+        <v>170.335</v>
+      </c>
+      <c r="G57">
+        <v>9.5</v>
+      </c>
+      <c r="H57">
+        <v>225.9</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>27.2</v>
+      </c>
+      <c r="K57">
+        <v>15.8</v>
+      </c>
+      <c r="L57">
+        <v>11.4</v>
+      </c>
+      <c r="M57">
+        <v>31.2905395</v>
+      </c>
+      <c r="N57">
+        <v>-19.8905395</v>
+      </c>
+      <c r="O57">
+        <v>-5.967161850000001</v>
+      </c>
+      <c r="P57">
+        <v>-13.92337765</v>
+      </c>
+      <c r="Q57">
+        <v>1.876622349999996</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1693660547717536</v>
+      </c>
+      <c r="T57">
+        <v>0.9795616686520642</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.1092982113651316</v>
+      </c>
+      <c r="W57">
+        <v>0.1636219185722253</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.3643273712171053</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1679507798620131</v>
+      </c>
+      <c r="C58">
+        <v>11.79699883811423</v>
+      </c>
+      <c r="D58">
+        <v>175.7289988381143</v>
+      </c>
+      <c r="E58">
+        <v>89.63200000000002</v>
+      </c>
+      <c r="F58">
+        <v>173.432</v>
+      </c>
+      <c r="G58">
+        <v>9.5</v>
+      </c>
+      <c r="H58">
+        <v>225.9</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>27.2</v>
+      </c>
+      <c r="K58">
+        <v>15.8</v>
+      </c>
+      <c r="L58">
+        <v>11.4</v>
+      </c>
+      <c r="M58">
+        <v>31.8594584</v>
+      </c>
+      <c r="N58">
+        <v>-20.4594584</v>
+      </c>
+      <c r="O58">
+        <v>-6.137837520000001</v>
+      </c>
+      <c r="P58">
+        <v>-14.32162088</v>
+      </c>
+      <c r="Q58">
+        <v>1.478379119999998</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1730039196529299</v>
+      </c>
+      <c r="T58">
+        <v>1.001824433848702</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.1073464575907543</v>
+      </c>
+      <c r="W58">
+        <v>0.1639804557405785</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.3578215253025142</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1696947798620131</v>
+      </c>
+      <c r="C59">
+        <v>6.789267240506547</v>
+      </c>
+      <c r="D59">
+        <v>173.8182672405066</v>
+      </c>
+      <c r="E59">
+        <v>92.72900000000003</v>
+      </c>
+      <c r="F59">
+        <v>176.529</v>
+      </c>
+      <c r="G59">
+        <v>9.5</v>
+      </c>
+      <c r="H59">
+        <v>225.9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>27.2</v>
+      </c>
+      <c r="K59">
+        <v>15.8</v>
+      </c>
+      <c r="L59">
+        <v>11.4</v>
+      </c>
+      <c r="M59">
+        <v>32.42837730000001</v>
+      </c>
+      <c r="N59">
+        <v>-21.02837730000001</v>
+      </c>
+      <c r="O59">
+        <v>-6.308513190000003</v>
+      </c>
+      <c r="P59">
+        <v>-14.71986411000001</v>
+      </c>
+      <c r="Q59">
+        <v>1.080135889999992</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1768109875518352</v>
+      </c>
+      <c r="T59">
+        <v>1.025122676496346</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.1054631864049515</v>
+      </c>
+      <c r="W59">
+        <v>0.1643264126574104</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.3515439546831718</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1714387798620131</v>
+      </c>
+      <c r="C60">
+        <v>1.822640132633779</v>
+      </c>
+      <c r="D60">
+        <v>171.9486401326338</v>
+      </c>
+      <c r="E60">
+        <v>95.82599999999998</v>
+      </c>
+      <c r="F60">
+        <v>179.626</v>
+      </c>
+      <c r="G60">
+        <v>9.5</v>
+      </c>
+      <c r="H60">
+        <v>225.9</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>27.2</v>
+      </c>
+      <c r="K60">
+        <v>15.8</v>
+      </c>
+      <c r="L60">
+        <v>11.4</v>
+      </c>
+      <c r="M60">
+        <v>32.99729619999999</v>
+      </c>
+      <c r="N60">
+        <v>-21.5972962</v>
+      </c>
+      <c r="O60">
+        <v>-6.479188859999998</v>
+      </c>
+      <c r="P60">
+        <v>-15.11810734</v>
+      </c>
+      <c r="Q60">
+        <v>0.6818926600000008</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1807993443983074</v>
+      </c>
+      <c r="T60">
+        <v>1.049530359270069</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.1036448556048662</v>
+      </c>
+      <c r="W60">
+        <v>0.1646604400253861</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.3454828520162206</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.173182779862013</v>
+      </c>
+      <c r="C61">
+        <v>-3.104194756936693</v>
+      </c>
+      <c r="D61">
+        <v>170.1188052430633</v>
+      </c>
+      <c r="E61">
+        <v>98.92299999999999</v>
+      </c>
+      <c r="F61">
+        <v>182.723</v>
+      </c>
+      <c r="G61">
+        <v>9.5</v>
+      </c>
+      <c r="H61">
+        <v>225.9</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>27.2</v>
+      </c>
+      <c r="K61">
+        <v>15.8</v>
+      </c>
+      <c r="L61">
+        <v>11.4</v>
+      </c>
+      <c r="M61">
+        <v>33.5662151</v>
+      </c>
+      <c r="N61">
+        <v>-22.1662151</v>
+      </c>
+      <c r="O61">
+        <v>-6.64986453</v>
+      </c>
+      <c r="P61">
+        <v>-15.51635057</v>
+      </c>
+      <c r="Q61">
+        <v>0.283649429999997</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1849822552372905</v>
+      </c>
+      <c r="T61">
+        <v>1.07512866071568</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.1018881631369871</v>
+      </c>
+      <c r="W61">
+        <v>0.1649831444317355</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.3396272104566236</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.174926779862013</v>
+      </c>
+      <c r="C62">
+        <v>-7.992494428349005</v>
+      </c>
+      <c r="D62">
+        <v>168.327505571651</v>
+      </c>
+      <c r="E62">
+        <v>102.02</v>
+      </c>
+      <c r="F62">
+        <v>185.82</v>
+      </c>
+      <c r="G62">
+        <v>9.5</v>
+      </c>
+      <c r="H62">
+        <v>225.9</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>27.2</v>
+      </c>
+      <c r="K62">
+        <v>15.8</v>
+      </c>
+      <c r="L62">
+        <v>11.4</v>
+      </c>
+      <c r="M62">
+        <v>34.135134</v>
+      </c>
+      <c r="N62">
+        <v>-22.735134</v>
+      </c>
+      <c r="O62">
+        <v>-6.820540200000001</v>
+      </c>
+      <c r="P62">
+        <v>-15.9145938</v>
+      </c>
+      <c r="Q62">
+        <v>-0.1145938000000033</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1893743116182228</v>
+      </c>
+      <c r="T62">
+        <v>1.102006877233572</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.100190027084704</v>
+      </c>
+      <c r="W62">
+        <v>0.1652950920245399</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.3339667569490132</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1766707798620131</v>
+      </c>
+      <c r="C63">
+        <v>-12.8434634900872</v>
+      </c>
+      <c r="D63">
+        <v>166.5735365099128</v>
+      </c>
+      <c r="E63">
+        <v>105.117</v>
+      </c>
+      <c r="F63">
+        <v>188.917</v>
+      </c>
+      <c r="G63">
+        <v>9.5</v>
+      </c>
+      <c r="H63">
+        <v>225.9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>27.2</v>
+      </c>
+      <c r="K63">
+        <v>15.8</v>
+      </c>
+      <c r="L63">
+        <v>11.4</v>
+      </c>
+      <c r="M63">
+        <v>34.7040529</v>
+      </c>
+      <c r="N63">
+        <v>-23.3040529</v>
+      </c>
+      <c r="O63">
+        <v>-6.99121587</v>
+      </c>
+      <c r="P63">
+        <v>-16.31283703</v>
+      </c>
+      <c r="Q63">
+        <v>-0.5128370300000018</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1939916016597157</v>
+      </c>
+      <c r="T63">
+        <v>1.130263463829305</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.09854756762429899</v>
+      </c>
+      <c r="W63">
+        <v>0.1655968118274163</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.3284918920809966</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.178414779862013</v>
+      </c>
+      <c r="C64">
+        <v>-17.65825686042604</v>
+      </c>
+      <c r="D64">
+        <v>164.8557431395739</v>
+      </c>
+      <c r="E64">
+        <v>108.214</v>
+      </c>
+      <c r="F64">
+        <v>192.014</v>
+      </c>
+      <c r="G64">
+        <v>9.5</v>
+      </c>
+      <c r="H64">
+        <v>225.9</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>27.2</v>
+      </c>
+      <c r="K64">
+        <v>15.8</v>
+      </c>
+      <c r="L64">
+        <v>11.4</v>
+      </c>
+      <c r="M64">
+        <v>35.2729718</v>
+      </c>
+      <c r="N64">
+        <v>-23.8729718</v>
+      </c>
+      <c r="O64">
+        <v>-7.16189154</v>
+      </c>
+      <c r="P64">
+        <v>-16.71108026</v>
+      </c>
+      <c r="Q64">
+        <v>-0.9110802600000039</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1988519069665503</v>
+      </c>
+      <c r="T64">
+        <v>1.160007239193234</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.09695809072713289</v>
+      </c>
+      <c r="W64">
+        <v>0.1658887987334257</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.3231936357571096</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1801587798620131</v>
+      </c>
+      <c r="C65">
+        <v>-22.43798230343586</v>
+      </c>
+      <c r="D65">
+        <v>163.1730176965641</v>
+      </c>
+      <c r="E65">
+        <v>111.311</v>
+      </c>
+      <c r="F65">
+        <v>195.111</v>
+      </c>
+      <c r="G65">
+        <v>9.5</v>
+      </c>
+      <c r="H65">
+        <v>225.9</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>27.2</v>
+      </c>
+      <c r="K65">
+        <v>15.8</v>
+      </c>
+      <c r="L65">
+        <v>11.4</v>
+      </c>
+      <c r="M65">
+        <v>35.8418907</v>
+      </c>
+      <c r="N65">
+        <v>-24.4418907</v>
+      </c>
+      <c r="O65">
+        <v>-7.332567210000001</v>
+      </c>
+      <c r="P65">
+        <v>-17.10932349</v>
+      </c>
+      <c r="Q65">
+        <v>-1.309323490000002</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2039749314791598</v>
+      </c>
+      <c r="T65">
+        <v>1.191358786198456</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.0954190734140038</v>
+      </c>
+      <c r="W65">
+        <v>0.1661715162138475</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.3180635780466793</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.181902779862013</v>
+      </c>
+      <c r="C66">
+        <v>-27.18370281124174</v>
+      </c>
+      <c r="D66">
+        <v>161.5242971887583</v>
+      </c>
+      <c r="E66">
+        <v>114.408</v>
+      </c>
+      <c r="F66">
+        <v>198.208</v>
+      </c>
+      <c r="G66">
+        <v>9.5</v>
+      </c>
+      <c r="H66">
+        <v>225.9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>27.2</v>
+      </c>
+      <c r="K66">
+        <v>15.8</v>
+      </c>
+      <c r="L66">
+        <v>11.4</v>
+      </c>
+      <c r="M66">
+        <v>36.4108096</v>
+      </c>
+      <c r="N66">
+        <v>-25.0108096</v>
+      </c>
+      <c r="O66">
+        <v>-7.50324288</v>
+      </c>
+      <c r="P66">
+        <v>-17.50756672</v>
+      </c>
+      <c r="Q66">
+        <v>-1.707566720000001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.209382568464692</v>
+      </c>
+      <c r="T66">
+        <v>1.22445208581508</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.09392815039190999</v>
+      </c>
+      <c r="W66">
+        <v>0.1664453987730061</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.3130938346397</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.183646779862013</v>
+      </c>
+      <c r="C67">
+        <v>-31.89643884330468</v>
+      </c>
+      <c r="D67">
+        <v>159.9085611566953</v>
+      </c>
+      <c r="E67">
+        <v>117.505</v>
+      </c>
+      <c r="F67">
+        <v>201.305</v>
+      </c>
+      <c r="G67">
+        <v>9.5</v>
+      </c>
+      <c r="H67">
+        <v>225.9</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>27.2</v>
+      </c>
+      <c r="K67">
+        <v>15.8</v>
+      </c>
+      <c r="L67">
+        <v>11.4</v>
+      </c>
+      <c r="M67">
+        <v>36.9797285</v>
+      </c>
+      <c r="N67">
+        <v>-25.5797285</v>
+      </c>
+      <c r="O67">
+        <v>-7.67391855</v>
+      </c>
+      <c r="P67">
+        <v>-17.90580995</v>
+      </c>
+      <c r="Q67">
+        <v>-2.105809950000003</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2150992132779689</v>
+      </c>
+      <c r="T67">
+        <v>1.259436431124082</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.09248310192434214</v>
+      </c>
+      <c r="W67">
+        <v>0.1667108541764983</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.3082770064144738</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1853907798620131</v>
+      </c>
+      <c r="C68">
+        <v>-36.577170432635</v>
+      </c>
+      <c r="D68">
+        <v>158.324829567365</v>
+      </c>
+      <c r="E68">
+        <v>120.602</v>
+      </c>
+      <c r="F68">
+        <v>204.402</v>
+      </c>
+      <c r="G68">
+        <v>9.5</v>
+      </c>
+      <c r="H68">
+        <v>225.9</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>27.2</v>
+      </c>
+      <c r="K68">
+        <v>15.8</v>
+      </c>
+      <c r="L68">
+        <v>11.4</v>
+      </c>
+      <c r="M68">
+        <v>37.5486474</v>
+      </c>
+      <c r="N68">
+        <v>-26.1486474</v>
+      </c>
+      <c r="O68">
+        <v>-7.84459422</v>
+      </c>
+      <c r="P68">
+        <v>-18.30405318</v>
+      </c>
+      <c r="Q68">
+        <v>-2.504053180000001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2211521313155563</v>
+      </c>
+      <c r="T68">
+        <v>1.29647867909832</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.09108184280427635</v>
+      </c>
+      <c r="W68">
+        <v>0.1669682654768544</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.3036061426809211</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.187134779862013</v>
+      </c>
+      <c r="C69">
+        <v>-41.22683916807432</v>
+      </c>
+      <c r="D69">
+        <v>156.7721608319257</v>
+      </c>
+      <c r="E69">
+        <v>123.699</v>
+      </c>
+      <c r="F69">
+        <v>207.499</v>
+      </c>
+      <c r="G69">
+        <v>9.5</v>
+      </c>
+      <c r="H69">
+        <v>225.9</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>27.2</v>
+      </c>
+      <c r="K69">
+        <v>15.8</v>
+      </c>
+      <c r="L69">
+        <v>11.4</v>
+      </c>
+      <c r="M69">
+        <v>38.1175663</v>
+      </c>
+      <c r="N69">
+        <v>-26.7175663</v>
+      </c>
+      <c r="O69">
+        <v>-8.015269890000001</v>
+      </c>
+      <c r="P69">
+        <v>-18.70229641</v>
+      </c>
+      <c r="Q69">
+        <v>-2.902296410000003</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2275718928705731</v>
+      </c>
+      <c r="T69">
+        <v>1.335765911798269</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.08972241231466029</v>
+      </c>
+      <c r="W69">
+        <v>0.1672179928577969</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.2990747077155342</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1888787798620131</v>
+      </c>
+      <c r="C70">
+        <v>-45.8463500610705</v>
+      </c>
+      <c r="D70">
+        <v>155.2496499389295</v>
+      </c>
+      <c r="E70">
+        <v>126.796</v>
+      </c>
+      <c r="F70">
+        <v>210.596</v>
+      </c>
+      <c r="G70">
+        <v>9.5</v>
+      </c>
+      <c r="H70">
+        <v>225.9</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>27.2</v>
+      </c>
+      <c r="K70">
+        <v>15.8</v>
+      </c>
+      <c r="L70">
+        <v>11.4</v>
+      </c>
+      <c r="M70">
+        <v>38.6864852</v>
+      </c>
+      <c r="N70">
+        <v>-27.2864852</v>
+      </c>
+      <c r="O70">
+        <v>-8.18594556</v>
+      </c>
+      <c r="P70">
+        <v>-19.10053964</v>
+      </c>
+      <c r="Q70">
+        <v>-3.300539640000002</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2343928895227786</v>
+      </c>
+      <c r="T70">
+        <v>1.377508596541966</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.08840296507473881</v>
+      </c>
+      <c r="W70">
+        <v>0.1674603753157705</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.2946765502491293</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1906227798620131</v>
+      </c>
+      <c r="C71">
+        <v>-50.43657330472217</v>
+      </c>
+      <c r="D71">
+        <v>153.7564266952778</v>
+      </c>
+      <c r="E71">
+        <v>129.893</v>
+      </c>
+      <c r="F71">
+        <v>213.693</v>
+      </c>
+      <c r="G71">
+        <v>9.5</v>
+      </c>
+      <c r="H71">
+        <v>225.9</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>27.2</v>
+      </c>
+      <c r="K71">
+        <v>15.8</v>
+      </c>
+      <c r="L71">
+        <v>11.4</v>
+      </c>
+      <c r="M71">
+        <v>39.2554041</v>
+      </c>
+      <c r="N71">
+        <v>-27.8554041</v>
+      </c>
+      <c r="O71">
+        <v>-8.35662123</v>
+      </c>
+      <c r="P71">
+        <v>-19.49878287</v>
+      </c>
+      <c r="Q71">
+        <v>-3.69878287</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2416539504751263</v>
+      </c>
+      <c r="T71">
+        <v>1.421944357720739</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.08712176268235129</v>
+      </c>
+      <c r="W71">
+        <v>0.1676957321952521</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.2904058756078376</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1923667798620131</v>
+      </c>
+      <c r="C72">
+        <v>-54.99834593227746</v>
+      </c>
+      <c r="D72">
+        <v>152.2916540677226</v>
+      </c>
+      <c r="E72">
+        <v>132.99</v>
+      </c>
+      <c r="F72">
+        <v>216.79</v>
+      </c>
+      <c r="G72">
+        <v>9.5</v>
+      </c>
+      <c r="H72">
+        <v>225.9</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>27.2</v>
+      </c>
+      <c r="K72">
+        <v>15.8</v>
+      </c>
+      <c r="L72">
+        <v>11.4</v>
+      </c>
+      <c r="M72">
+        <v>39.82432300000001</v>
+      </c>
+      <c r="N72">
+        <v>-28.42432300000001</v>
+      </c>
+      <c r="O72">
+        <v>-8.527296900000001</v>
+      </c>
+      <c r="P72">
+        <v>-19.89702610000001</v>
+      </c>
+      <c r="Q72">
+        <v>-4.097026100000006</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2493990821576304</v>
+      </c>
+      <c r="T72">
+        <v>1.469342502978096</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.0858771660726034</v>
+      </c>
+      <c r="W72">
+        <v>0.1679243645924628</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.2862572202420113</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.194110779862013</v>
+      </c>
+      <c r="C73">
+        <v>-59.53247338172821</v>
+      </c>
+      <c r="D73">
+        <v>150.8545266182718</v>
+      </c>
+      <c r="E73">
+        <v>136.087</v>
+      </c>
+      <c r="F73">
+        <v>219.887</v>
+      </c>
+      <c r="G73">
+        <v>9.5</v>
+      </c>
+      <c r="H73">
+        <v>225.9</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>27.2</v>
+      </c>
+      <c r="K73">
+        <v>15.8</v>
+      </c>
+      <c r="L73">
+        <v>11.4</v>
+      </c>
+      <c r="M73">
+        <v>40.39324189999999</v>
+      </c>
+      <c r="N73">
+        <v>-28.99324189999999</v>
+      </c>
+      <c r="O73">
+        <v>-8.697972569999997</v>
+      </c>
+      <c r="P73">
+        <v>-20.29526933</v>
+      </c>
+      <c r="Q73">
+        <v>-4.495269329999998</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2576783608527211</v>
+      </c>
+      <c r="T73">
+        <v>1.52000948583941</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.08466762852228508</v>
+      </c>
+      <c r="W73">
+        <v>0.1681465566404562</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.2822254284076169</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1958547798620131</v>
+      </c>
+      <c r="C74">
+        <v>-64.03973097264529</v>
+      </c>
+      <c r="D74">
+        <v>149.4442690273547</v>
+      </c>
+      <c r="E74">
+        <v>139.184</v>
+      </c>
+      <c r="F74">
+        <v>222.984</v>
+      </c>
+      <c r="G74">
+        <v>9.5</v>
+      </c>
+      <c r="H74">
+        <v>225.9</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>27.2</v>
+      </c>
+      <c r="K74">
+        <v>15.8</v>
+      </c>
+      <c r="L74">
+        <v>11.4</v>
+      </c>
+      <c r="M74">
+        <v>40.9621608</v>
+      </c>
+      <c r="N74">
+        <v>-29.5621608</v>
+      </c>
+      <c r="O74">
+        <v>-8.868648240000001</v>
+      </c>
+      <c r="P74">
+        <v>-20.69351256</v>
+      </c>
+      <c r="Q74">
+        <v>-4.893512560000003</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2665490165974611</v>
+      </c>
+      <c r="T74">
+        <v>1.574295538905103</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.08349168923725332</v>
+      </c>
+      <c r="W74">
+        <v>0.1683625766871166</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.2783056307908444</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.197598779862013</v>
+      </c>
+      <c r="C75">
+        <v>-68.52086530094363</v>
+      </c>
+      <c r="D75">
+        <v>148.0601346990564</v>
+      </c>
+      <c r="E75">
+        <v>142.281</v>
+      </c>
+      <c r="F75">
+        <v>226.081</v>
+      </c>
+      <c r="G75">
+        <v>9.5</v>
+      </c>
+      <c r="H75">
+        <v>225.9</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>27.2</v>
+      </c>
+      <c r="K75">
+        <v>15.8</v>
+      </c>
+      <c r="L75">
+        <v>11.4</v>
+      </c>
+      <c r="M75">
+        <v>41.5310797</v>
+      </c>
+      <c r="N75">
+        <v>-30.1310797</v>
+      </c>
+      <c r="O75">
+        <v>-9.03932391</v>
+      </c>
+      <c r="P75">
+        <v>-21.09175579</v>
+      </c>
+      <c r="Q75">
+        <v>-5.291755790000002</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2760767579529226</v>
+      </c>
+      <c r="T75">
+        <v>1.632602781086773</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.08234796746687999</v>
+      </c>
+      <c r="W75">
+        <v>0.1685726783763341</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.2744932248895999</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.199342779862013</v>
+      </c>
+      <c r="C76">
+        <v>-72.97659555685044</v>
+      </c>
+      <c r="D76">
+        <v>146.7014044431496</v>
+      </c>
+      <c r="E76">
+        <v>145.378</v>
+      </c>
+      <c r="F76">
+        <v>229.178</v>
+      </c>
+      <c r="G76">
+        <v>9.5</v>
+      </c>
+      <c r="H76">
+        <v>225.9</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>27.2</v>
+      </c>
+      <c r="K76">
+        <v>15.8</v>
+      </c>
+      <c r="L76">
+        <v>11.4</v>
+      </c>
+      <c r="M76">
+        <v>42.0999986</v>
+      </c>
+      <c r="N76">
+        <v>-30.6999986</v>
+      </c>
+      <c r="O76">
+        <v>-9.20999958</v>
+      </c>
+      <c r="P76">
+        <v>-21.48999902</v>
+      </c>
+      <c r="Q76">
+        <v>-5.68999902</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2863374024895735</v>
+      </c>
+      <c r="T76">
+        <v>1.695395195743957</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.08123515709570593</v>
+      </c>
+      <c r="W76">
+        <v>0.1687771016415188</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.2707838569856864</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.201086779862013</v>
+      </c>
+      <c r="C77">
+        <v>-77.40761477096376</v>
+      </c>
+      <c r="D77">
+        <v>145.3673852290362</v>
+      </c>
+      <c r="E77">
+        <v>148.475</v>
+      </c>
+      <c r="F77">
+        <v>232.275</v>
+      </c>
+      <c r="G77">
+        <v>9.5</v>
+      </c>
+      <c r="H77">
+        <v>225.9</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>27.2</v>
+      </c>
+      <c r="K77">
+        <v>15.8</v>
+      </c>
+      <c r="L77">
+        <v>11.4</v>
+      </c>
+      <c r="M77">
+        <v>42.6689175</v>
+      </c>
+      <c r="N77">
+        <v>-31.2689175</v>
+      </c>
+      <c r="O77">
+        <v>-9.380675249999999</v>
+      </c>
+      <c r="P77">
+        <v>-21.88824225</v>
+      </c>
+      <c r="Q77">
+        <v>-6.088242250000002</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2974188985891565</v>
+      </c>
+      <c r="T77">
+        <v>1.763211003573716</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.0801520216677632</v>
+      </c>
+      <c r="W77">
+        <v>0.1689760736196319</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.2671734055592107</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.202830779862013</v>
+      </c>
+      <c r="C78">
+        <v>-81.81459099293838</v>
+      </c>
+      <c r="D78">
+        <v>144.0574090070616</v>
+      </c>
+      <c r="E78">
+        <v>151.572</v>
+      </c>
+      <c r="F78">
+        <v>235.372</v>
+      </c>
+      <c r="G78">
+        <v>9.5</v>
+      </c>
+      <c r="H78">
+        <v>225.9</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>27.2</v>
+      </c>
+      <c r="K78">
+        <v>15.8</v>
+      </c>
+      <c r="L78">
+        <v>11.4</v>
+      </c>
+      <c r="M78">
+        <v>43.2378364</v>
+      </c>
+      <c r="N78">
+        <v>-31.8378364</v>
+      </c>
+      <c r="O78">
+        <v>-9.551350919999999</v>
+      </c>
+      <c r="P78">
+        <v>-22.28648548</v>
+      </c>
+      <c r="Q78">
+        <v>-6.486485480000004</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.309423852697038</v>
+      </c>
+      <c r="T78">
+        <v>1.83667812872262</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.07909738980371368</v>
+      </c>
+      <c r="W78">
+        <v>0.1691698094930578</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.2636579660123789</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.204574779862013</v>
+      </c>
+      <c r="C79">
+        <v>-86.19816840701023</v>
+      </c>
+      <c r="D79">
+        <v>142.7708315929898</v>
+      </c>
+      <c r="E79">
+        <v>154.669</v>
+      </c>
+      <c r="F79">
+        <v>238.469</v>
+      </c>
+      <c r="G79">
+        <v>9.5</v>
+      </c>
+      <c r="H79">
+        <v>225.9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>27.2</v>
+      </c>
+      <c r="K79">
+        <v>15.8</v>
+      </c>
+      <c r="L79">
+        <v>11.4</v>
+      </c>
+      <c r="M79">
+        <v>43.8067553</v>
+      </c>
+      <c r="N79">
+        <v>-32.4067553</v>
+      </c>
+      <c r="O79">
+        <v>-9.72202659</v>
+      </c>
+      <c r="P79">
+        <v>-22.68472871</v>
+      </c>
+      <c r="Q79">
+        <v>-6.884728710000003</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3224727158577787</v>
+      </c>
+      <c r="T79">
+        <v>1.916533699536647</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.07807015097509402</v>
+      </c>
+      <c r="W79">
+        <v>0.1693585132658752</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.2602338365836467</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2063187798620131</v>
+      </c>
+      <c r="C80">
+        <v>-90.55896838827377</v>
+      </c>
+      <c r="D80">
+        <v>141.5070316117262</v>
+      </c>
+      <c r="E80">
+        <v>157.766</v>
+      </c>
+      <c r="F80">
+        <v>241.566</v>
+      </c>
+      <c r="G80">
+        <v>9.5</v>
+      </c>
+      <c r="H80">
+        <v>225.9</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>27.2</v>
+      </c>
+      <c r="K80">
+        <v>15.8</v>
+      </c>
+      <c r="L80">
+        <v>11.4</v>
+      </c>
+      <c r="M80">
+        <v>44.3756742</v>
+      </c>
+      <c r="N80">
+        <v>-32.9756742</v>
+      </c>
+      <c r="O80">
+        <v>-9.89270226</v>
+      </c>
+      <c r="P80">
+        <v>-23.08297194</v>
+      </c>
+      <c r="Q80">
+        <v>-7.282971940000001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.3367078393058597</v>
+      </c>
+      <c r="T80">
+        <v>2.003648867697404</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.07706925160361845</v>
+      </c>
+      <c r="W80">
+        <v>0.1695423784804153</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.2568975053453948</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.208062779862013</v>
+      </c>
+      <c r="C81">
+        <v>-94.89759050335076</v>
+      </c>
+      <c r="D81">
+        <v>140.2654094966493</v>
+      </c>
+      <c r="E81">
+        <v>160.863</v>
+      </c>
+      <c r="F81">
+        <v>244.663</v>
+      </c>
+      <c r="G81">
+        <v>9.5</v>
+      </c>
+      <c r="H81">
+        <v>225.9</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>27.2</v>
+      </c>
+      <c r="K81">
+        <v>15.8</v>
+      </c>
+      <c r="L81">
+        <v>11.4</v>
+      </c>
+      <c r="M81">
+        <v>44.94459310000001</v>
+      </c>
+      <c r="N81">
+        <v>-33.54459310000001</v>
+      </c>
+      <c r="O81">
+        <v>-10.06337793</v>
+      </c>
+      <c r="P81">
+        <v>-23.48121517000001</v>
+      </c>
+      <c r="Q81">
+        <v>-7.681215170000007</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.3522986887966149</v>
+      </c>
+      <c r="T81">
+        <v>2.099060718540138</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.07609369145673719</v>
+      </c>
+      <c r="W81">
+        <v>0.1697215888793974</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.253645638189124</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.209806779862013</v>
+      </c>
+      <c r="C82">
+        <v>-99.21461345883631</v>
+      </c>
+      <c r="D82">
+        <v>139.0453865411637</v>
+      </c>
+      <c r="E82">
+        <v>163.96</v>
+      </c>
+      <c r="F82">
+        <v>247.76</v>
+      </c>
+      <c r="G82">
+        <v>9.5</v>
+      </c>
+      <c r="H82">
+        <v>225.9</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>27.2</v>
+      </c>
+      <c r="K82">
+        <v>15.8</v>
+      </c>
+      <c r="L82">
+        <v>11.4</v>
+      </c>
+      <c r="M82">
+        <v>45.513512</v>
+      </c>
+      <c r="N82">
+        <v>-34.113512</v>
+      </c>
+      <c r="O82">
+        <v>-10.2340536</v>
+      </c>
+      <c r="P82">
+        <v>-23.8794584</v>
+      </c>
+      <c r="Q82">
+        <v>-8.079458400000002</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.3694486232364456</v>
+      </c>
+      <c r="T82">
+        <v>2.204013754467145</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.07514252031352799</v>
+      </c>
+      <c r="W82">
+        <v>0.1698963190184049</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.25047506771176</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.211550779862013</v>
+      </c>
+      <c r="C83">
+        <v>-103.5105960006749</v>
+      </c>
+      <c r="D83">
+        <v>137.8464039993251</v>
+      </c>
+      <c r="E83">
+        <v>167.057</v>
+      </c>
+      <c r="F83">
+        <v>250.857</v>
+      </c>
+      <c r="G83">
+        <v>9.5</v>
+      </c>
+      <c r="H83">
+        <v>225.9</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>27.2</v>
+      </c>
+      <c r="K83">
+        <v>15.8</v>
+      </c>
+      <c r="L83">
+        <v>11.4</v>
+      </c>
+      <c r="M83">
+        <v>46.0824309</v>
+      </c>
+      <c r="N83">
+        <v>-34.6824309</v>
+      </c>
+      <c r="O83">
+        <v>-10.40472927</v>
+      </c>
+      <c r="P83">
+        <v>-24.27770163</v>
+      </c>
+      <c r="Q83">
+        <v>-8.477701630000004</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3884038139331007</v>
+      </c>
+      <c r="T83">
+        <v>2.320014478386468</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.07421483487755852</v>
+      </c>
+      <c r="W83">
+        <v>0.1700667348329925</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.247382782925195</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2132947798620131</v>
+      </c>
+      <c r="C84">
+        <v>-107.7860777674017</v>
+      </c>
+      <c r="D84">
+        <v>136.6679222325983</v>
+      </c>
+      <c r="E84">
+        <v>170.154</v>
+      </c>
+      <c r="F84">
+        <v>253.954</v>
+      </c>
+      <c r="G84">
+        <v>9.5</v>
+      </c>
+      <c r="H84">
+        <v>225.9</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>27.2</v>
+      </c>
+      <c r="K84">
+        <v>15.8</v>
+      </c>
+      <c r="L84">
+        <v>11.4</v>
+      </c>
+      <c r="M84">
+        <v>46.6513498</v>
+      </c>
+      <c r="N84">
+        <v>-35.2513498</v>
+      </c>
+      <c r="O84">
+        <v>-10.57540494</v>
+      </c>
+      <c r="P84">
+        <v>-24.67594486</v>
+      </c>
+      <c r="Q84">
+        <v>-8.875944860000002</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.4094651369293841</v>
+      </c>
+      <c r="T84">
+        <v>2.448904171630161</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.07330977591563707</v>
+      </c>
+      <c r="W84">
+        <v>0.1702329941642975</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.2443659197187902</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.215038779862013</v>
+      </c>
+      <c r="C85">
+        <v>-112.0415800999882</v>
+      </c>
+      <c r="D85">
+        <v>135.5094199000118</v>
+      </c>
+      <c r="E85">
+        <v>173.251</v>
+      </c>
+      <c r="F85">
+        <v>257.051</v>
+      </c>
+      <c r="G85">
+        <v>9.5</v>
+      </c>
+      <c r="H85">
+        <v>225.9</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>27.2</v>
+      </c>
+      <c r="K85">
+        <v>15.8</v>
+      </c>
+      <c r="L85">
+        <v>11.4</v>
+      </c>
+      <c r="M85">
+        <v>47.2202687</v>
+      </c>
+      <c r="N85">
+        <v>-35.8202687</v>
+      </c>
+      <c r="O85">
+        <v>-10.74608061</v>
+      </c>
+      <c r="P85">
+        <v>-25.07418809</v>
+      </c>
+      <c r="Q85">
+        <v>-9.274188090000001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.4330042626311126</v>
+      </c>
+      <c r="T85">
+        <v>2.592957358196641</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.07242652560340047</v>
+      </c>
+      <c r="W85">
+        <v>0.1703952472466553</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.2414217520113349</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2167827798620131</v>
+      </c>
+      <c r="C86">
+        <v>-116.2776068108448</v>
+      </c>
+      <c r="D86">
+        <v>134.3703931891551</v>
+      </c>
+      <c r="E86">
+        <v>176.348</v>
+      </c>
+      <c r="F86">
+        <v>260.148</v>
+      </c>
+      <c r="G86">
+        <v>9.5</v>
+      </c>
+      <c r="H86">
+        <v>225.9</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>27.2</v>
+      </c>
+      <c r="K86">
+        <v>15.8</v>
+      </c>
+      <c r="L86">
+        <v>11.4</v>
+      </c>
+      <c r="M86">
+        <v>47.78918759999999</v>
+      </c>
+      <c r="N86">
+        <v>-36.38918759999999</v>
+      </c>
+      <c r="O86">
+        <v>-10.91675628</v>
+      </c>
+      <c r="P86">
+        <v>-25.47243131999999</v>
+      </c>
+      <c r="Q86">
+        <v>-9.672431319999996</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.4594857790455569</v>
+      </c>
+      <c r="T86">
+        <v>2.75501719308393</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.07156430506050286</v>
+      </c>
+      <c r="W86">
+        <v>0.1705536371603856</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.2385476835350095</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.218526779862013</v>
+      </c>
+      <c r="C87">
+        <v>-120.4946449143631</v>
+      </c>
+      <c r="D87">
+        <v>133.2503550856369</v>
+      </c>
+      <c r="E87">
+        <v>179.445</v>
+      </c>
+      <c r="F87">
+        <v>263.245</v>
+      </c>
+      <c r="G87">
+        <v>9.5</v>
+      </c>
+      <c r="H87">
+        <v>225.9</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>27.2</v>
+      </c>
+      <c r="K87">
+        <v>15.8</v>
+      </c>
+      <c r="L87">
+        <v>11.4</v>
+      </c>
+      <c r="M87">
+        <v>48.3581065</v>
+      </c>
+      <c r="N87">
+        <v>-36.9581065</v>
+      </c>
+      <c r="O87">
+        <v>-11.08743195</v>
+      </c>
+      <c r="P87">
+        <v>-25.87067455</v>
+      </c>
+      <c r="Q87">
+        <v>-10.07067455</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.4894981643152607</v>
+      </c>
+      <c r="T87">
+        <v>2.938685005956192</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.07072237205979105</v>
+      </c>
+      <c r="W87">
+        <v>0.1707083002526164</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.2357412401993035</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.220270779862013</v>
+      </c>
+      <c r="C88">
+        <v>-124.693165321224</v>
+      </c>
+      <c r="D88">
+        <v>132.148834678776</v>
+      </c>
+      <c r="E88">
+        <v>182.542</v>
+      </c>
+      <c r="F88">
+        <v>266.342</v>
+      </c>
+      <c r="G88">
+        <v>9.5</v>
+      </c>
+      <c r="H88">
+        <v>225.9</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>27.2</v>
+      </c>
+      <c r="K88">
+        <v>15.8</v>
+      </c>
+      <c r="L88">
+        <v>11.4</v>
+      </c>
+      <c r="M88">
+        <v>48.9270254</v>
+      </c>
+      <c r="N88">
+        <v>-37.5270254</v>
+      </c>
+      <c r="O88">
+        <v>-11.25810762</v>
+      </c>
+      <c r="P88">
+        <v>-26.26891778</v>
+      </c>
+      <c r="Q88">
+        <v>-10.46891778</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.5237980331949222</v>
+      </c>
+      <c r="T88">
+        <v>3.148591077810206</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.06990001889630511</v>
+      </c>
+      <c r="W88">
+        <v>0.1708593665287488</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.2330000629876837</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.222014779862013</v>
+      </c>
+      <c r="C89">
+        <v>-128.8736234985508</v>
+      </c>
+      <c r="D89">
+        <v>131.0653765014492</v>
+      </c>
+      <c r="E89">
+        <v>185.639</v>
+      </c>
+      <c r="F89">
+        <v>269.439</v>
+      </c>
+      <c r="G89">
+        <v>9.5</v>
+      </c>
+      <c r="H89">
+        <v>225.9</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>27.2</v>
+      </c>
+      <c r="K89">
+        <v>15.8</v>
+      </c>
+      <c r="L89">
+        <v>11.4</v>
+      </c>
+      <c r="M89">
+        <v>49.49594429999999</v>
+      </c>
+      <c r="N89">
+        <v>-38.09594429999999</v>
+      </c>
+      <c r="O89">
+        <v>-11.42878329</v>
+      </c>
+      <c r="P89">
+        <v>-26.66716100999999</v>
+      </c>
+      <c r="Q89">
+        <v>-10.86716100999999</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.5633748049791469</v>
+      </c>
+      <c r="T89">
+        <v>3.390790391487914</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.06909657040324414</v>
+      </c>
+      <c r="W89">
+        <v>0.1710069600169241</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.2303219013441471</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.223758779862013</v>
+      </c>
+      <c r="C90">
+        <v>-133.0364600978526</v>
+      </c>
+      <c r="D90">
+        <v>129.9995399021474</v>
+      </c>
+      <c r="E90">
+        <v>188.736</v>
+      </c>
+      <c r="F90">
+        <v>272.536</v>
+      </c>
+      <c r="G90">
+        <v>9.5</v>
+      </c>
+      <c r="H90">
+        <v>225.9</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>27.2</v>
+      </c>
+      <c r="K90">
+        <v>15.8</v>
+      </c>
+      <c r="L90">
+        <v>11.4</v>
+      </c>
+      <c r="M90">
+        <v>50.0648632</v>
+      </c>
+      <c r="N90">
+        <v>-38.6648632</v>
+      </c>
+      <c r="O90">
+        <v>-11.59945896</v>
+      </c>
+      <c r="P90">
+        <v>-27.06540424</v>
+      </c>
+      <c r="Q90">
+        <v>-11.26540424</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.609547705394076</v>
+      </c>
+      <c r="T90">
+        <v>3.673356257445241</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.06831138210320727</v>
+      </c>
+      <c r="W90">
+        <v>0.1711511991076408</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.2277046070106908</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2255027798620131</v>
+      </c>
+      <c r="C91">
+        <v>-137.1821015525741</v>
+      </c>
+      <c r="D91">
+        <v>128.9508984474259</v>
+      </c>
+      <c r="E91">
+        <v>191.833</v>
+      </c>
+      <c r="F91">
+        <v>275.633</v>
+      </c>
+      <c r="G91">
+        <v>9.5</v>
+      </c>
+      <c r="H91">
+        <v>225.9</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>27.2</v>
+      </c>
+      <c r="K91">
+        <v>15.8</v>
+      </c>
+      <c r="L91">
+        <v>11.4</v>
+      </c>
+      <c r="M91">
+        <v>50.6337821</v>
+      </c>
+      <c r="N91">
+        <v>-39.2337821</v>
+      </c>
+      <c r="O91">
+        <v>-11.77013463</v>
+      </c>
+      <c r="P91">
+        <v>-27.46364747</v>
+      </c>
+      <c r="Q91">
+        <v>-11.66364747</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.6641156786117194</v>
+      </c>
+      <c r="T91">
+        <v>4.007297735394808</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.06754383848407011</v>
+      </c>
+      <c r="W91">
+        <v>0.1712921968704763</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.2251461282802336</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.227246779862013</v>
+      </c>
+      <c r="C92">
+        <v>-141.3109606469581</v>
+      </c>
+      <c r="D92">
+        <v>127.9190393530419</v>
+      </c>
+      <c r="E92">
+        <v>194.93</v>
+      </c>
+      <c r="F92">
+        <v>278.73</v>
+      </c>
+      <c r="G92">
+        <v>9.5</v>
+      </c>
+      <c r="H92">
+        <v>225.9</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>27.2</v>
+      </c>
+      <c r="K92">
+        <v>15.8</v>
+      </c>
+      <c r="L92">
+        <v>11.4</v>
+      </c>
+      <c r="M92">
+        <v>51.202701</v>
+      </c>
+      <c r="N92">
+        <v>-39.80270100000001</v>
+      </c>
+      <c r="O92">
+        <v>-11.9408103</v>
+      </c>
+      <c r="P92">
+        <v>-27.8618907</v>
+      </c>
+      <c r="Q92">
+        <v>-12.0618907</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.7295972464728913</v>
+      </c>
+      <c r="T92">
+        <v>4.408027508934289</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.06679335138980265</v>
+      </c>
+      <c r="W92">
+        <v>0.1714300613496932</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.2226445046326755</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.228990779862013</v>
+      </c>
+      <c r="C93">
+        <v>-145.4234370578108</v>
+      </c>
+      <c r="D93">
+        <v>126.9035629421892</v>
+      </c>
+      <c r="E93">
+        <v>198.027</v>
+      </c>
+      <c r="F93">
+        <v>281.827</v>
+      </c>
+      <c r="G93">
+        <v>9.5</v>
+      </c>
+      <c r="H93">
+        <v>225.9</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>27.2</v>
+      </c>
+      <c r="K93">
+        <v>15.8</v>
+      </c>
+      <c r="L93">
+        <v>11.4</v>
+      </c>
+      <c r="M93">
+        <v>51.7716199</v>
+      </c>
+      <c r="N93">
+        <v>-40.3716199</v>
+      </c>
+      <c r="O93">
+        <v>-12.11148597</v>
+      </c>
+      <c r="P93">
+        <v>-28.26013393</v>
+      </c>
+      <c r="Q93">
+        <v>-12.46013393</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.8096302738587683</v>
+      </c>
+      <c r="T93">
+        <v>4.897808343260323</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.06605935851738724</v>
+      </c>
+      <c r="W93">
+        <v>0.171564895840356</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.2201978617246242</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2307347798620131</v>
+      </c>
+      <c r="C94">
+        <v>-149.5199178706672</v>
+      </c>
+      <c r="D94">
+        <v>125.9040821293328</v>
+      </c>
+      <c r="E94">
+        <v>201.124</v>
+      </c>
+      <c r="F94">
+        <v>284.924</v>
+      </c>
+      <c r="G94">
+        <v>9.5</v>
+      </c>
+      <c r="H94">
+        <v>225.9</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>27.2</v>
+      </c>
+      <c r="K94">
+        <v>15.8</v>
+      </c>
+      <c r="L94">
+        <v>11.4</v>
+      </c>
+      <c r="M94">
+        <v>52.3405388</v>
+      </c>
+      <c r="N94">
+        <v>-40.9405388</v>
+      </c>
+      <c r="O94">
+        <v>-12.28216164</v>
+      </c>
+      <c r="P94">
+        <v>-28.65837716</v>
+      </c>
+      <c r="Q94">
+        <v>-12.85837716</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.9096715580911144</v>
+      </c>
+      <c r="T94">
+        <v>5.510034386167864</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.06534132201176347</v>
+      </c>
+      <c r="W94">
+        <v>0.1716967991464391</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.2178044067058782</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.232478779862013</v>
+      </c>
+      <c r="C95">
+        <v>-153.600778071755</v>
+      </c>
+      <c r="D95">
+        <v>124.920221928245</v>
+      </c>
+      <c r="E95">
+        <v>204.221</v>
+      </c>
+      <c r="F95">
+        <v>288.021</v>
+      </c>
+      <c r="G95">
+        <v>9.5</v>
+      </c>
+      <c r="H95">
+        <v>225.9</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>27.2</v>
+      </c>
+      <c r="K95">
+        <v>15.8</v>
+      </c>
+      <c r="L95">
+        <v>11.4</v>
+      </c>
+      <c r="M95">
+        <v>52.9094577</v>
+      </c>
+      <c r="N95">
+        <v>-41.50945770000001</v>
+      </c>
+      <c r="O95">
+        <v>-12.45283731</v>
+      </c>
+      <c r="P95">
+        <v>-29.05662039000001</v>
+      </c>
+      <c r="Q95">
+        <v>-13.25662039000001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.038296066389845</v>
+      </c>
+      <c r="T95">
+        <v>6.297182155620416</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.06463872715142192</v>
+      </c>
+      <c r="W95">
+        <v>0.1718258658222838</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.215462423838073</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2342227798620131</v>
+      </c>
+      <c r="C96">
+        <v>-157.6663810170703</v>
+      </c>
+      <c r="D96">
+        <v>123.9516189829297</v>
+      </c>
+      <c r="E96">
+        <v>207.318</v>
+      </c>
+      <c r="F96">
+        <v>291.118</v>
+      </c>
+      <c r="G96">
+        <v>9.5</v>
+      </c>
+      <c r="H96">
+        <v>225.9</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>27.2</v>
+      </c>
+      <c r="K96">
+        <v>15.8</v>
+      </c>
+      <c r="L96">
+        <v>11.4</v>
+      </c>
+      <c r="M96">
+        <v>53.4783766</v>
+      </c>
+      <c r="N96">
+        <v>-42.0783766</v>
+      </c>
+      <c r="O96">
+        <v>-12.62351298</v>
+      </c>
+      <c r="P96">
+        <v>-29.45486362</v>
+      </c>
+      <c r="Q96">
+        <v>-13.65486362</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.209795410788153</v>
+      </c>
+      <c r="T96">
+        <v>7.346712514890489</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.06395108111789616</v>
+      </c>
+      <c r="W96">
+        <v>0.1719521863986425</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.2131702703929872</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2359667798620131</v>
+      </c>
+      <c r="C97">
+        <v>-161.7170788798001</v>
+      </c>
+      <c r="D97">
+        <v>122.9979211201999</v>
+      </c>
+      <c r="E97">
+        <v>210.415</v>
+      </c>
+      <c r="F97">
+        <v>294.215</v>
+      </c>
+      <c r="G97">
+        <v>9.5</v>
+      </c>
+      <c r="H97">
+        <v>225.9</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>27.2</v>
+      </c>
+      <c r="K97">
+        <v>15.8</v>
+      </c>
+      <c r="L97">
+        <v>11.4</v>
+      </c>
+      <c r="M97">
+        <v>54.0472955</v>
+      </c>
+      <c r="N97">
+        <v>-42.64729550000001</v>
+      </c>
+      <c r="O97">
+        <v>-12.79418865</v>
+      </c>
+      <c r="P97">
+        <v>-29.85310685</v>
+      </c>
+      <c r="Q97">
+        <v>-14.05310685</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.449894492945785</v>
+      </c>
+      <c r="T97">
+        <v>8.816055017868591</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.06327791184297094</v>
+      </c>
+      <c r="W97">
+        <v>0.1720758475944462</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.2109263728099031</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2377107798620131</v>
+      </c>
+      <c r="C98">
+        <v>-165.7532130772456</v>
+      </c>
+      <c r="D98">
+        <v>122.0587869227544</v>
+      </c>
+      <c r="E98">
+        <v>213.5119999999999</v>
+      </c>
+      <c r="F98">
+        <v>297.312</v>
+      </c>
+      <c r="G98">
+        <v>9.5</v>
+      </c>
+      <c r="H98">
+        <v>225.9</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>27.2</v>
+      </c>
+      <c r="K98">
+        <v>15.8</v>
+      </c>
+      <c r="L98">
+        <v>11.4</v>
+      </c>
+      <c r="M98">
+        <v>54.61621439999999</v>
+      </c>
+      <c r="N98">
+        <v>-43.21621439999999</v>
+      </c>
+      <c r="O98">
+        <v>-12.96486432</v>
+      </c>
+      <c r="P98">
+        <v>-30.25135007999999</v>
+      </c>
+      <c r="Q98">
+        <v>-14.45135008</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.810043116182226</v>
+      </c>
+      <c r="T98">
+        <v>11.02006877233571</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.06261876692794001</v>
+      </c>
+      <c r="W98">
+        <v>0.1721969325153374</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.2087292230931334</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2394547798620131</v>
+      </c>
+      <c r="C99">
+        <v>-169.7751146783373</v>
+      </c>
+      <c r="D99">
+        <v>121.1338853216627</v>
+      </c>
+      <c r="E99">
+        <v>216.609</v>
+      </c>
+      <c r="F99">
+        <v>300.409</v>
+      </c>
+      <c r="G99">
+        <v>9.5</v>
+      </c>
+      <c r="H99">
+        <v>225.9</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>27.2</v>
+      </c>
+      <c r="K99">
+        <v>15.8</v>
+      </c>
+      <c r="L99">
+        <v>11.4</v>
+      </c>
+      <c r="M99">
+        <v>55.1851333</v>
+      </c>
+      <c r="N99">
+        <v>-43.7851333</v>
+      </c>
+      <c r="O99">
+        <v>-13.13553999</v>
+      </c>
+      <c r="P99">
+        <v>-30.64959331</v>
+      </c>
+      <c r="Q99">
+        <v>-14.84959331</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.410290821576302</v>
+      </c>
+      <c r="T99">
+        <v>14.69342502978095</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.06197321262971382</v>
+      </c>
+      <c r="W99">
+        <v>0.1723155208399216</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.2065773754323793</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.241198779862013</v>
+      </c>
+      <c r="C100">
+        <v>-173.78310479276</v>
+      </c>
+      <c r="D100">
+        <v>120.22289520724</v>
+      </c>
+      <c r="E100">
+        <v>219.706</v>
+      </c>
+      <c r="F100">
+        <v>303.506</v>
+      </c>
+      <c r="G100">
+        <v>9.5</v>
+      </c>
+      <c r="H100">
+        <v>225.9</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>27.2</v>
+      </c>
+      <c r="K100">
+        <v>15.8</v>
+      </c>
+      <c r="L100">
+        <v>11.4</v>
+      </c>
+      <c r="M100">
+        <v>55.7540522</v>
+      </c>
+      <c r="N100">
+        <v>-44.3540522</v>
+      </c>
+      <c r="O100">
+        <v>-13.30621566</v>
+      </c>
+      <c r="P100">
+        <v>-31.04783654</v>
+      </c>
+      <c r="Q100">
+        <v>-15.24783654</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.610786232364453</v>
+      </c>
+      <c r="T100">
+        <v>22.04013754467142</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.06134083290900245</v>
+      </c>
+      <c r="W100">
+        <v>0.1724316889946163</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.2044694430300081</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.242942779862013</v>
+      </c>
+      <c r="C101">
+        <v>-177.7774949426515</v>
+      </c>
+      <c r="D101">
+        <v>119.3255050573486</v>
+      </c>
+      <c r="E101">
+        <v>222.803</v>
+      </c>
+      <c r="F101">
+        <v>306.603</v>
+      </c>
+      <c r="G101">
+        <v>9.5</v>
+      </c>
+      <c r="H101">
+        <v>225.9</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>27.2</v>
+      </c>
+      <c r="K101">
+        <v>15.8</v>
+      </c>
+      <c r="L101">
+        <v>11.4</v>
+      </c>
+      <c r="M101">
+        <v>56.3229711</v>
+      </c>
+      <c r="N101">
+        <v>-44.92297110000001</v>
+      </c>
+      <c r="O101">
+        <v>-13.47689133</v>
+      </c>
+      <c r="P101">
+        <v>-31.44607977</v>
+      </c>
+      <c r="Q101">
+        <v>-15.64607977000001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>7.212272464728905</v>
+      </c>
+      <c r="T101">
+        <v>44.08027508934285</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.06072122853618423</v>
+      </c>
+      <c r="W101">
+        <v>0.172545510317903</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.2024040951206141</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
